--- a/0 - DADOS/DESPESA_-_Cenários_Fiscais.xlsx
+++ b/0 - DADOS/DESPESA_-_Cenários_Fiscais.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="49">
   <si>
     <t>Exercício (Ano)</t>
   </si>
@@ -362,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T362"/>
+  <dimension ref="A1:T368"/>
   <cols>
     <col min="1" max="1" width="498176e-6" customWidth="1"/>
     <col min="2" max="2" width="13.286916" customWidth="1"/>
@@ -1240,25 +1240,25 @@
         <v>1</v>
       </c>
       <c r="O31" s="7">
-        <v>20307.46738946</v>
+        <v>20307.19838946</v>
       </c>
       <c r="P31" s="5">
-        <v>11618.13050259</v>
+        <v>11647.12477879</v>
       </c>
       <c r="Q31" s="5">
-        <v>11467.82654427</v>
+        <v>11491.09271016</v>
       </c>
       <c r="R31" s="5">
-        <v>10771.3041256</v>
+        <v>11256.74524047</v>
       </c>
       <c r="S31" s="18">
-        <v>572111.247541388e-6</v>
+        <v>573546.609208054e-6</v>
       </c>
       <c r="T31" s="18">
-        <v>987062.982440548e-6</v>
+        <v>986603.38310154e-6</v>
       </c>
       <c r="U31" s="18">
-        <v>939262.909498921e-6</v>
+        <v>979606.163173429e-6</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1297,16 +1297,16 @@
         <v>747.34913076</v>
       </c>
       <c r="Q32" s="5">
-        <v>423.305059</v>
+        <v>474.61410658</v>
       </c>
       <c r="R32" s="5">
-        <v>423.305059</v>
+        <v>474.61410658</v>
       </c>
       <c r="S32" s="18">
         <v>952415.648971311e-6</v>
       </c>
       <c r="T32" s="18">
-        <v>566408.712577921e-6</v>
+        <v>635063.435609207e-6</v>
       </c>
       <c r="U32" s="18">
         <v>1</v>
@@ -1342,25 +1342,25 @@
         <v>3</v>
       </c>
       <c r="O33" s="7">
-        <v>13052.88657745</v>
+        <v>13274.3325347</v>
       </c>
       <c r="P33" s="5">
-        <v>10662.05762697</v>
+        <v>11357.57631599</v>
       </c>
       <c r="Q33" s="5">
-        <v>5869.10578975</v>
+        <v>6929.44613338</v>
       </c>
       <c r="R33" s="5">
-        <v>5712.09710728</v>
+        <v>6816.59599148</v>
       </c>
       <c r="S33" s="18">
-        <v>816835.231326505e-6</v>
+        <v>855604.324081875e-6</v>
       </c>
       <c r="T33" s="18">
-        <v>550466.522981821e-6</v>
+        <v>610116.625289518e-6</v>
       </c>
       <c r="U33" s="18">
-        <v>973248.278682554e-6</v>
+        <v>983714.40664552e-6</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1393,25 +1393,25 @@
         <v>4</v>
       </c>
       <c r="O34" s="7">
-        <v>4863.05404555</v>
+        <v>4868.35399065</v>
       </c>
       <c r="P34" s="5">
-        <v>2429.96822079</v>
+        <v>2713.81343686</v>
       </c>
       <c r="Q34" s="5">
-        <v>963.39273582</v>
+        <v>1253.00970175</v>
       </c>
       <c r="R34" s="5">
-        <v>864.04206125</v>
+        <v>1207.93210663</v>
       </c>
       <c r="S34" s="18">
-        <v>499679.460279405e-6</v>
+        <v>557439.627864379e-6</v>
       </c>
       <c r="T34" s="18">
-        <v>396463.100865901e-6</v>
+        <v>461715.490361705e-6</v>
       </c>
       <c r="U34" s="18">
-        <v>896874.170962648e-6</v>
+        <v>964024.54421778e-6</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1444,22 +1444,22 @@
         <v>5</v>
       </c>
       <c r="O35" s="7">
-        <v>85.6822383</v>
+        <v>85.6622383</v>
       </c>
       <c r="P35" s="5">
-        <v>74.18020681</v>
+        <v>76.85622161</v>
       </c>
       <c r="Q35" s="5">
-        <v>48.40503645</v>
+        <v>60.74617436</v>
       </c>
       <c r="R35" s="5">
-        <v>48.40503645</v>
+        <v>60.74617436</v>
       </c>
       <c r="S35" s="18">
-        <v>865759.441884235e-6</v>
+        <v>897200.716853088e-6</v>
       </c>
       <c r="T35" s="18">
-        <v>652533.047986524e-6</v>
+        <v>790387.207274526e-6</v>
       </c>
       <c r="U35" s="18">
         <v>1</v>
@@ -1501,16 +1501,16 @@
         <v>441.86891652</v>
       </c>
       <c r="Q36" s="5">
-        <v>251.03589767</v>
+        <v>288.57464657</v>
       </c>
       <c r="R36" s="5">
-        <v>251.03589767</v>
+        <v>288.57464657</v>
       </c>
       <c r="S36" s="18">
         <v>934484.055172064e-6</v>
       </c>
       <c r="T36" s="18">
-        <v>568123.00726439e-6</v>
+        <v>653077.498283223e-6</v>
       </c>
       <c r="U36" s="18">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="O37" s="7">
-        <v>1325.38637689</v>
+        <v>1324.90137689</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -1585,25 +1585,25 @@
         <v>33</v>
       </c>
       <c r="O38" s="14">
-        <v>40892.01262765</v>
+        <v>41117.98453</v>
       </c>
       <c r="P38" s="13">
-        <v>25973.55460444</v>
+        <v>26984.5888005301</v>
       </c>
       <c r="Q38" s="13">
-        <v>19023.07106296</v>
+        <v>20497.4834728</v>
       </c>
       <c r="R38" s="13">
-        <v>18070.18928725</v>
+        <v>20105.20826609</v>
       </c>
       <c r="S38" s="20">
-        <v>635174.278188437e-6</v>
+        <v>656272.166765419e-6</v>
       </c>
       <c r="T38" s="20">
-        <v>732401.52734844e-6</v>
+        <v>759599.622744571e-6</v>
       </c>
       <c r="U38" s="20">
-        <v>949909.151232402e-6</v>
+        <v>980862.274765068e-6</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="12.7992" customHeight="1">
@@ -1797,25 +1797,25 @@
         <v>1</v>
       </c>
       <c r="O44" s="7">
-        <v>24725.0588097</v>
+        <v>24764.7898097</v>
       </c>
       <c r="P44" s="5">
-        <v>14154.43557401</v>
+        <v>14231.571039</v>
       </c>
       <c r="Q44" s="5">
-        <v>13914.59892744</v>
+        <v>13986.16757872</v>
       </c>
       <c r="R44" s="5">
-        <v>12922.11116709</v>
+        <v>13699.11558576</v>
       </c>
       <c r="S44" s="18">
-        <v>572473.282387383e-6</v>
+        <v>574669.567089389e-6</v>
       </c>
       <c r="T44" s="18">
-        <v>983055.725160076e-6</v>
+        <v>982756.404081636e-6</v>
       </c>
       <c r="U44" s="18">
-        <v>928672.916443694e-6</v>
+        <v>979476.007895347e-6</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1854,16 +1854,16 @@
         <v>747.34913076</v>
       </c>
       <c r="Q45" s="5">
-        <v>423.305059</v>
+        <v>474.61410658</v>
       </c>
       <c r="R45" s="5">
-        <v>423.305059</v>
+        <v>474.61410658</v>
       </c>
       <c r="S45" s="18">
         <v>952415.648971311e-6</v>
       </c>
       <c r="T45" s="18">
-        <v>566408.712577921e-6</v>
+        <v>635063.435609207e-6</v>
       </c>
       <c r="U45" s="18">
         <v>1</v>
@@ -1899,25 +1899,25 @@
         <v>3</v>
       </c>
       <c r="O46" s="7">
-        <v>15001.17686344</v>
+        <v>15223.64855531</v>
       </c>
       <c r="P46" s="5">
-        <v>12241.97698432</v>
+        <v>12960.69166428</v>
       </c>
       <c r="Q46" s="5">
-        <v>6743.92403291</v>
+        <v>7868.96615051</v>
       </c>
       <c r="R46" s="5">
-        <v>6561.17121215</v>
+        <v>7741.61259213</v>
       </c>
       <c r="S46" s="18">
-        <v>816067.772266282e-6</v>
+        <v>851352.526773834e-6</v>
       </c>
       <c r="T46" s="18">
-        <v>550885.207638266e-6</v>
+        <v>607140.911483688e-6</v>
       </c>
       <c r="U46" s="18">
-        <v>972901.115156669e-6</v>
+        <v>983815.719124456e-6</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1950,25 +1950,25 @@
         <v>4</v>
       </c>
       <c r="O47" s="7">
-        <v>5744.04019594</v>
+        <v>5749.34014104</v>
       </c>
       <c r="P47" s="5">
-        <v>3011.87203994</v>
+        <v>3320.61972297</v>
       </c>
       <c r="Q47" s="5">
-        <v>1096.18939664</v>
+        <v>1406.69840705</v>
       </c>
       <c r="R47" s="5">
-        <v>994.53848071</v>
+        <v>1356.32932767</v>
       </c>
       <c r="S47" s="18">
-        <v>524347.312553428e-6</v>
+        <v>577565.362547733e-6</v>
       </c>
       <c r="T47" s="18">
-        <v>363956.16483821e-6</v>
+        <v>423625.26407927e-6</v>
       </c>
       <c r="U47" s="18">
-        <v>907268.838540514e-6</v>
+        <v>964193.405546233e-6</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1999,22 +1999,22 @@
         <v>5</v>
       </c>
       <c r="O48" s="7">
-        <v>104.0652383</v>
+        <v>104.0452383</v>
       </c>
       <c r="P48" s="5">
-        <v>74.18020681</v>
+        <v>76.85622161</v>
       </c>
       <c r="Q48" s="5">
-        <v>48.40503645</v>
+        <v>60.74617436</v>
       </c>
       <c r="R48" s="5">
-        <v>48.40503645</v>
+        <v>60.74617436</v>
       </c>
       <c r="S48" s="18">
-        <v>712824.070955882e-6</v>
+        <v>738680.816784674e-6</v>
       </c>
       <c r="T48" s="18">
-        <v>652533.047986524e-6</v>
+        <v>790387.207274526e-6</v>
       </c>
       <c r="U48" s="18">
         <v>1</v>
@@ -2056,16 +2056,16 @@
         <v>441.86891652</v>
       </c>
       <c r="Q49" s="5">
-        <v>251.03589767</v>
+        <v>288.57464657</v>
       </c>
       <c r="R49" s="5">
-        <v>251.03589767</v>
+        <v>288.57464657</v>
       </c>
       <c r="S49" s="18">
         <v>934484.055172064e-6</v>
       </c>
       <c r="T49" s="18">
-        <v>568123.00726439e-6</v>
+        <v>653077.498283223e-6</v>
       </c>
       <c r="U49" s="18">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="O50" s="7">
-        <v>1325.38637689</v>
+        <v>1324.90137689</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -2136,25 +2136,25 @@
         <v>33</v>
       </c>
       <c r="O51" s="14">
-        <v>48157.26348427</v>
+        <v>48424.26112124</v>
       </c>
       <c r="P51" s="13">
-        <v>30671.68285236</v>
+        <v>31778.95669514</v>
       </c>
       <c r="Q51" s="13">
-        <v>22477.45835011</v>
+        <v>24085.76706379</v>
       </c>
       <c r="R51" s="13">
-        <v>21200.56685307</v>
+        <v>23620.99243307</v>
       </c>
       <c r="S51" s="20">
-        <v>636906.681011444e-6</v>
+        <v>656261.055085073e-6</v>
       </c>
       <c r="T51" s="20">
-        <v>732840.726682868e-6</v>
+        <v>757915.601032726e-6</v>
       </c>
       <c r="U51" s="20">
-        <v>943192.35399523e-6</v>
+        <v>980703.349430846e-6</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="28.7982" customHeight="1">
@@ -4223,7 +4223,7 @@
         <v>202104</v>
       </c>
       <c r="G129" s="5">
-        <v>723.966457049999e6</v>
+        <v>723.96645705e6</v>
       </c>
       <c r="H129" s="5">
         <v>697.47217164e6</v>
@@ -4412,7 +4412,7 @@
         <v>202111</v>
       </c>
       <c r="G136" s="5">
-        <v>551.27467331e6</v>
+        <v>551.274673309999e6</v>
       </c>
       <c r="H136" s="5">
         <v>1038.76449895e6</v>
@@ -6122,7 +6122,7 @@
         <v>202203</v>
       </c>
       <c r="G200" s="5">
-        <v>946.962011560002e6</v>
+        <v>946.962011560003e6</v>
       </c>
       <c r="H200" s="5">
         <v>838.73634663e6</v>
@@ -7512,7 +7512,7 @@
         <v>202307</v>
       </c>
       <c r="G252" s="5">
-        <v>653.492755849999e6</v>
+        <v>653.49275585e6</v>
       </c>
       <c r="H252" s="5">
         <v>1871.40477115e6</v>
@@ -8131,7 +8131,7 @@
         <v>202306</v>
       </c>
       <c r="G275" s="5">
-        <v>860.42728635e6</v>
+        <v>860.427286350001e6</v>
       </c>
       <c r="H275" s="5">
         <v>906.37862778e6</v>
@@ -8266,7 +8266,7 @@
         <v>202311</v>
       </c>
       <c r="G280" s="5">
-        <v>87.6975330500001e6</v>
+        <v>87.69753305e6</v>
       </c>
       <c r="H280" s="5">
         <v>822.50609522e6</v>
@@ -8293,7 +8293,7 @@
         <v>202312</v>
       </c>
       <c r="G281" s="5">
-        <v>224.27440909e6</v>
+        <v>224.274409090001e6</v>
       </c>
       <c r="H281" s="5">
         <v>1328.01572897e6</v>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="J318" s="5"/>
       <c r="K318" s="7">
-        <v>24498.3921643e6</v>
+        <v>24498.1231643e6</v>
       </c>
       <c r="L318" s="7"/>
     </row>
@@ -9460,13 +9460,13 @@
         <v>202407</v>
       </c>
       <c r="G324" s="5">
-        <v>1954.08204074e6</v>
+        <v>1953.69617752e6</v>
       </c>
       <c r="H324" s="5">
-        <v>1996.79592308e6</v>
+        <v>1998.66208956e6</v>
       </c>
       <c r="I324" s="5">
-        <v>1292.28896868e6</v>
+        <v>2003.85489614e6</v>
       </c>
       <c r="J324" s="5"/>
       <c r="K324" s="7">
@@ -9479,27 +9479,27 @@
         <v>2024</v>
       </c>
       <c r="C325" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E325" s="10"/>
       <c r="F325" s="8">
-        <v>202401</v>
+        <v>202408</v>
       </c>
       <c r="G325" s="5">
-        <v>500.12070833e6</v>
+        <v>77.52132821e6</v>
       </c>
       <c r="H325" s="5">
-        <v>40.91265249e6</v>
+        <v>69.7024848e6</v>
       </c>
       <c r="I325" s="5">
-        <v>40.91265249e6</v>
+        <v>65.43849121e6</v>
       </c>
       <c r="J325" s="5"/>
       <c r="K325" s="7">
-        <v>784.688e6</v>
+        <v>40e6</v>
       </c>
       <c r="L325" s="7"/>
     </row>
@@ -9515,19 +9515,21 @@
       </c>
       <c r="E326" s="10"/>
       <c r="F326" s="8">
-        <v>202402</v>
+        <v>202401</v>
       </c>
       <c r="G326" s="5">
-        <v>143.986e6</v>
+        <v>500.12070833e6</v>
       </c>
       <c r="H326" s="5">
-        <v>48.34449612e6</v>
+        <v>40.91265249e6</v>
       </c>
       <c r="I326" s="5">
-        <v>48.34187095e6</v>
+        <v>40.91265249e6</v>
       </c>
       <c r="J326" s="5"/>
-      <c r="K326" s="7"/>
+      <c r="K326" s="7">
+        <v>784.688e6</v>
+      </c>
       <c r="L326" s="7"/>
     </row>
     <row r="327" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -9542,16 +9544,16 @@
       </c>
       <c r="E327" s="10"/>
       <c r="F327" s="8">
-        <v>202403</v>
+        <v>202402</v>
       </c>
       <c r="G327" s="5">
-        <v>103.67936706e6</v>
+        <v>143.986e6</v>
       </c>
       <c r="H327" s="5">
-        <v>49.09519699e6</v>
+        <v>48.34449612e6</v>
       </c>
       <c r="I327" s="5">
-        <v>49.09782216e6</v>
+        <v>48.34187095e6</v>
       </c>
       <c r="J327" s="5"/>
       <c r="K327" s="7"/>
@@ -9569,16 +9571,16 @@
       </c>
       <c r="E328" s="10"/>
       <c r="F328" s="8">
-        <v>202404</v>
+        <v>202403</v>
       </c>
       <c r="G328" s="5">
-        <v>-436944.63</v>
+        <v>103.67936706e6</v>
       </c>
       <c r="H328" s="5">
-        <v>50.82204603e6</v>
+        <v>49.09519699e6</v>
       </c>
       <c r="I328" s="5">
-        <v>50.82204603e6</v>
+        <v>49.09782216e6</v>
       </c>
       <c r="J328" s="5"/>
       <c r="K328" s="7"/>
@@ -9596,14 +9598,16 @@
       </c>
       <c r="E329" s="10"/>
       <c r="F329" s="8">
-        <v>202405</v>
-      </c>
-      <c r="G329" s="5"/>
+        <v>202404</v>
+      </c>
+      <c r="G329" s="5">
+        <v>-436944.63</v>
+      </c>
       <c r="H329" s="5">
-        <v>49.76035827e6</v>
+        <v>50.82204603e6</v>
       </c>
       <c r="I329" s="5">
-        <v>49.76035827e6</v>
+        <v>50.82204603e6</v>
       </c>
       <c r="J329" s="5"/>
       <c r="K329" s="7"/>
@@ -9621,14 +9625,14 @@
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="8">
-        <v>202406</v>
+        <v>202405</v>
       </c>
       <c r="G330" s="5"/>
       <c r="H330" s="5">
-        <v>133.40636023e6</v>
+        <v>49.76035827e6</v>
       </c>
       <c r="I330" s="5">
-        <v>133.40636022e6</v>
+        <v>49.76035827e6</v>
       </c>
       <c r="J330" s="5"/>
       <c r="K330" s="7"/>
@@ -9646,14 +9650,14 @@
       </c>
       <c r="E331" s="10"/>
       <c r="F331" s="8">
-        <v>202407</v>
+        <v>202406</v>
       </c>
       <c r="G331" s="5"/>
       <c r="H331" s="5">
-        <v>50.96394887e6</v>
+        <v>133.40636023e6</v>
       </c>
       <c r="I331" s="5">
-        <v>50.96394888e6</v>
+        <v>133.40636022e6</v>
       </c>
       <c r="J331" s="5"/>
       <c r="K331" s="7"/>
@@ -9664,28 +9668,24 @@
         <v>2024</v>
       </c>
       <c r="C332" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E332" s="10"/>
       <c r="F332" s="8">
-        <v>202401</v>
-      </c>
-      <c r="G332" s="5">
-        <v>5305.4300622e6</v>
-      </c>
+        <v>202407</v>
+      </c>
+      <c r="G332" s="5"/>
       <c r="H332" s="5">
-        <v>730.62014587e6</v>
+        <v>50.96394887e6</v>
       </c>
       <c r="I332" s="5">
-        <v>486.90728367e6</v>
+        <v>50.96394888e6</v>
       </c>
       <c r="J332" s="5"/>
-      <c r="K332" s="7">
-        <v>12899.67109732e6</v>
-      </c>
+      <c r="K332" s="7"/>
       <c r="L332" s="7"/>
     </row>
     <row r="333" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -9693,28 +9693,24 @@
         <v>2024</v>
       </c>
       <c r="C333" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E333" s="10"/>
       <c r="F333" s="8">
-        <v>202402</v>
-      </c>
-      <c r="G333" s="5">
-        <v>2428.10716512e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G333" s="5"/>
       <c r="H333" s="5">
-        <v>959.50476698e6</v>
+        <v>51.30904758e6</v>
       </c>
       <c r="I333" s="5">
-        <v>885.1128112e6</v>
+        <v>51.30904758e6</v>
       </c>
       <c r="J333" s="5"/>
-      <c r="K333" s="7">
-        <v>158.74761667e6</v>
-      </c>
+      <c r="K333" s="7"/>
       <c r="L333" s="7"/>
     </row>
     <row r="334" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -9729,20 +9725,20 @@
       </c>
       <c r="E334" s="10"/>
       <c r="F334" s="8">
-        <v>202403</v>
+        <v>202401</v>
       </c>
       <c r="G334" s="5">
-        <v>1038.76527868e6</v>
+        <v>5305.4300622e6</v>
       </c>
       <c r="H334" s="5">
-        <v>756.35872168e6</v>
+        <v>730.62014587e6</v>
       </c>
       <c r="I334" s="5">
-        <v>976.88211376e6</v>
+        <v>486.90728367e6</v>
       </c>
       <c r="J334" s="5"/>
       <c r="K334" s="7">
-        <v>1499.47031778e6</v>
+        <v>12917.56298078e6</v>
       </c>
       <c r="L334" s="7"/>
     </row>
@@ -9758,20 +9754,20 @@
       </c>
       <c r="E335" s="10"/>
       <c r="F335" s="8">
-        <v>202404</v>
+        <v>202402</v>
       </c>
       <c r="G335" s="5">
-        <v>1152.26143102e6</v>
+        <v>2428.10716512e6</v>
       </c>
       <c r="H335" s="5">
-        <v>1287.0734278e6</v>
+        <v>959.50476698e6</v>
       </c>
       <c r="I335" s="5">
-        <v>1065.14709717e6</v>
+        <v>885.1128112e6</v>
       </c>
       <c r="J335" s="5"/>
       <c r="K335" s="7">
-        <v>182.67642908e6</v>
+        <v>158.74761667e6</v>
       </c>
       <c r="L335" s="7"/>
     </row>
@@ -9787,20 +9783,20 @@
       </c>
       <c r="E336" s="10"/>
       <c r="F336" s="8">
-        <v>202405</v>
+        <v>202403</v>
       </c>
       <c r="G336" s="5">
-        <v>431.83143741e6</v>
+        <v>1038.76527868e6</v>
       </c>
       <c r="H336" s="5">
-        <v>1103.24531503e6</v>
+        <v>756.35872168e6</v>
       </c>
       <c r="I336" s="5">
-        <v>1060.56865473e6</v>
+        <v>976.88211376e6</v>
       </c>
       <c r="J336" s="5"/>
       <c r="K336" s="7">
-        <v>7.75419884e6</v>
+        <v>1496.86094225e6</v>
       </c>
       <c r="L336" s="7"/>
     </row>
@@ -9816,20 +9812,20 @@
       </c>
       <c r="E337" s="10"/>
       <c r="F337" s="8">
-        <v>202406</v>
+        <v>202404</v>
       </c>
       <c r="G337" s="5">
-        <v>801.11354527e6</v>
+        <v>1152.26143102e6</v>
       </c>
       <c r="H337" s="5">
-        <v>901.63689816e6</v>
+        <v>1287.0734278e6</v>
       </c>
       <c r="I337" s="5">
-        <v>1167.34576534e6</v>
+        <v>1065.14709717e6</v>
       </c>
       <c r="J337" s="5"/>
       <c r="K337" s="7">
-        <v>134.5446309e6</v>
+        <v>184.7021637e6</v>
       </c>
       <c r="L337" s="7"/>
     </row>
@@ -9845,20 +9841,20 @@
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="8">
-        <v>202407</v>
+        <v>202405</v>
       </c>
       <c r="G338" s="5">
-        <v>1084.46806462e6</v>
+        <v>431.83143741e6</v>
       </c>
       <c r="H338" s="5">
-        <v>1005.48475739e6</v>
+        <v>1103.24531503e6</v>
       </c>
       <c r="I338" s="5">
-        <v>919.20748628e6</v>
+        <v>1060.56865473e6</v>
       </c>
       <c r="J338" s="5"/>
       <c r="K338" s="7">
-        <v>118.31257285e6</v>
+        <v>7.75419884e6</v>
       </c>
       <c r="L338" s="7"/>
     </row>
@@ -9867,27 +9863,27 @@
         <v>2024</v>
       </c>
       <c r="C339" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E339" s="10"/>
       <c r="F339" s="8">
-        <v>202401</v>
+        <v>202406</v>
       </c>
       <c r="G339" s="5">
-        <v>760.85402848e6</v>
+        <v>801.11354527e6</v>
       </c>
       <c r="H339" s="5">
-        <v>19.3798098e6</v>
+        <v>901.63689816e6</v>
       </c>
       <c r="I339" s="5">
-        <v>5.184616e6</v>
+        <v>1167.34576534e6</v>
       </c>
       <c r="J339" s="5"/>
       <c r="K339" s="7">
-        <v>4256.09777631e6</v>
+        <v>134.5446309e6</v>
       </c>
       <c r="L339" s="7"/>
     </row>
@@ -9896,27 +9892,27 @@
         <v>2024</v>
       </c>
       <c r="C340" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E340" s="10"/>
       <c r="F340" s="8">
-        <v>202402</v>
+        <v>202407</v>
       </c>
       <c r="G340" s="5">
-        <v>430.47453874e6</v>
+        <v>1272.48579921e6</v>
       </c>
       <c r="H340" s="5">
-        <v>90.77102606e6</v>
+        <v>1454.66751502e6</v>
       </c>
       <c r="I340" s="5">
-        <v>89.89927885e6</v>
+        <v>1275.93290044e6</v>
       </c>
       <c r="J340" s="5"/>
       <c r="K340" s="7">
-        <v>32.81573252e6</v>
+        <v>118.09885958e6</v>
       </c>
       <c r="L340" s="7"/>
     </row>
@@ -9925,27 +9921,27 @@
         <v>2024</v>
       </c>
       <c r="C341" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="8">
-        <v>202403</v>
+        <v>202408</v>
       </c>
       <c r="G341" s="5">
-        <v>191.78146817e6</v>
+        <v>530.69694537e6</v>
       </c>
       <c r="H341" s="5">
-        <v>94.08758669e6</v>
+        <v>675.85935997e6</v>
       </c>
       <c r="I341" s="5">
-        <v>100.7327995e6</v>
+        <v>823.71596582e6</v>
       </c>
       <c r="J341" s="5"/>
       <c r="K341" s="7">
-        <v>530.13956629e6</v>
+        <v>205.37716259e6</v>
       </c>
       <c r="L341" s="7"/>
     </row>
@@ -9961,20 +9957,20 @@
       </c>
       <c r="E342" s="10"/>
       <c r="F342" s="8">
-        <v>202404</v>
+        <v>202401</v>
       </c>
       <c r="G342" s="5">
-        <v>539.32056803e6</v>
+        <v>760.85402848e6</v>
       </c>
       <c r="H342" s="5">
-        <v>147.55159031e6</v>
+        <v>19.3798098e6</v>
       </c>
       <c r="I342" s="5">
-        <v>141.43746731e6</v>
+        <v>5.184616e6</v>
       </c>
       <c r="J342" s="5"/>
       <c r="K342" s="7">
-        <v>157.11009577e6</v>
+        <v>4247.61517365e6</v>
       </c>
       <c r="L342" s="7"/>
     </row>
@@ -9990,20 +9986,20 @@
       </c>
       <c r="E343" s="10"/>
       <c r="F343" s="8">
-        <v>202405</v>
+        <v>202402</v>
       </c>
       <c r="G343" s="5">
-        <v>424.25026796e6</v>
+        <v>430.47453874e6</v>
       </c>
       <c r="H343" s="5">
-        <v>163.54568562e6</v>
+        <v>90.77102606e6</v>
       </c>
       <c r="I343" s="5">
-        <v>150.51400312e6</v>
+        <v>89.89927885e6</v>
       </c>
       <c r="J343" s="5"/>
       <c r="K343" s="7">
-        <v>78.68176608e6</v>
+        <v>32.81573252e6</v>
       </c>
       <c r="L343" s="7"/>
     </row>
@@ -10019,20 +10015,20 @@
       </c>
       <c r="E344" s="10"/>
       <c r="F344" s="8">
-        <v>202406</v>
+        <v>202403</v>
       </c>
       <c r="G344" s="5">
-        <v>273.00353706e6</v>
+        <v>191.78146817e6</v>
       </c>
       <c r="H344" s="5">
-        <v>251.65443784e6</v>
+        <v>94.08758669e6</v>
       </c>
       <c r="I344" s="5">
-        <v>241.20960425e6</v>
+        <v>100.7327995e6</v>
       </c>
       <c r="J344" s="5"/>
       <c r="K344" s="7">
-        <v>72.70334138e6</v>
+        <v>532.74894182e6</v>
       </c>
       <c r="L344" s="7"/>
     </row>
@@ -10048,20 +10044,20 @@
       </c>
       <c r="E345" s="10"/>
       <c r="F345" s="8">
-        <v>202407</v>
+        <v>202404</v>
       </c>
       <c r="G345" s="5">
-        <v>392.1876315e6</v>
+        <v>539.32056803e6</v>
       </c>
       <c r="H345" s="5">
-        <v>329.19926032e6</v>
+        <v>147.55159031e6</v>
       </c>
       <c r="I345" s="5">
-        <v>265.56071168e6</v>
+        <v>141.43746731e6</v>
       </c>
       <c r="J345" s="5"/>
       <c r="K345" s="7">
-        <v>616.49191759e6</v>
+        <v>157.11009577e6</v>
       </c>
       <c r="L345" s="7"/>
     </row>
@@ -10070,27 +10066,27 @@
         <v>2024</v>
       </c>
       <c r="C346" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="8">
-        <v>202401</v>
+        <v>202405</v>
       </c>
       <c r="G346" s="5">
-        <v>82.64356645e6</v>
+        <v>424.25026796e6</v>
       </c>
       <c r="H346" s="5">
-        <v>1.64193045e6</v>
+        <v>163.54568562e6</v>
       </c>
       <c r="I346" s="5">
-        <v>1.64193045e6</v>
+        <v>150.51400312e6</v>
       </c>
       <c r="J346" s="5"/>
       <c r="K346" s="7">
-        <v>61.3252383e6</v>
+        <v>81.13176608e6</v>
       </c>
       <c r="L346" s="7"/>
     </row>
@@ -10099,27 +10095,27 @@
         <v>2024</v>
       </c>
       <c r="C347" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E347" s="10"/>
       <c r="F347" s="8">
-        <v>202402</v>
+        <v>202406</v>
       </c>
       <c r="G347" s="5">
-        <v>15.19729271e6</v>
+        <v>273.00353706e6</v>
       </c>
       <c r="H347" s="5">
-        <v>15.19892871e6</v>
+        <v>251.65443784e6</v>
       </c>
       <c r="I347" s="5">
-        <v>15.19392871e6</v>
+        <v>241.20960425e6</v>
       </c>
       <c r="J347" s="5"/>
       <c r="K347" s="7">
-        <v>10000</v>
+        <v>79.48203201e6</v>
       </c>
       <c r="L347" s="7"/>
     </row>
@@ -10128,27 +10124,27 @@
         <v>2024</v>
       </c>
       <c r="C348" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E348" s="10"/>
       <c r="F348" s="8">
-        <v>202403</v>
+        <v>202407</v>
       </c>
       <c r="G348" s="5">
-        <v>2.09733745e6</v>
+        <v>439.57693154e6</v>
       </c>
       <c r="H348" s="5">
-        <v>1.65821434e6</v>
+        <v>322.7733238e6</v>
       </c>
       <c r="I348" s="5">
-        <v>1.66321434e6</v>
+        <v>309.83283882e6</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="7">
-        <v>40.93e6</v>
+        <v>616.49191759e6</v>
       </c>
       <c r="L348" s="7"/>
     </row>
@@ -10157,26 +10153,28 @@
         <v>2024</v>
       </c>
       <c r="C349" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="8">
-        <v>202404</v>
+        <v>202408</v>
       </c>
       <c r="G349" s="5">
-        <v>46.0371028e6</v>
+        <v>261.35838299e6</v>
       </c>
       <c r="H349" s="5">
-        <v>11.59539111e6</v>
+        <v>316.93494693e6</v>
       </c>
       <c r="I349" s="5">
-        <v>11.59539111e6</v>
+        <v>317.51871982e6</v>
       </c>
       <c r="J349" s="5"/>
-      <c r="K349" s="7"/>
+      <c r="K349" s="7">
+        <v>1.9444816e6</v>
+      </c>
       <c r="L349" s="7"/>
     </row>
     <row r="350" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10191,20 +10189,20 @@
       </c>
       <c r="E350" s="10"/>
       <c r="F350" s="8">
-        <v>202405</v>
+        <v>202401</v>
       </c>
       <c r="G350" s="5">
-        <v>2.32046167e6</v>
+        <v>82.64356645e6</v>
       </c>
       <c r="H350" s="5">
-        <v>1.62312611e6</v>
+        <v>1.64193045e6</v>
       </c>
       <c r="I350" s="5">
-        <v>1.62312611e6</v>
+        <v>1.64193045e6</v>
       </c>
       <c r="J350" s="5"/>
       <c r="K350" s="7">
-        <v>1.8e6</v>
+        <v>61.3052383e6</v>
       </c>
       <c r="L350" s="7"/>
     </row>
@@ -10220,19 +10218,21 @@
       </c>
       <c r="E351" s="10"/>
       <c r="F351" s="8">
-        <v>202406</v>
+        <v>202402</v>
       </c>
       <c r="G351" s="5">
-        <v>-79.19266013e6</v>
+        <v>15.19729271e6</v>
       </c>
       <c r="H351" s="5">
-        <v>11.61033987e6</v>
+        <v>15.19892871e6</v>
       </c>
       <c r="I351" s="5">
-        <v>11.61033987e6</v>
+        <v>15.19392871e6</v>
       </c>
       <c r="J351" s="5"/>
-      <c r="K351" s="7"/>
+      <c r="K351" s="7">
+        <v>10000</v>
+      </c>
       <c r="L351" s="7"/>
     </row>
     <row r="352" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10247,19 +10247,21 @@
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="8">
-        <v>202407</v>
+        <v>202403</v>
       </c>
       <c r="G352" s="5">
-        <v>5.07710586e6</v>
+        <v>2.09733745e6</v>
       </c>
       <c r="H352" s="5">
-        <v>5.07710586e6</v>
+        <v>1.65821434e6</v>
       </c>
       <c r="I352" s="5">
-        <v>5.07710586e6</v>
+        <v>1.66321434e6</v>
       </c>
       <c r="J352" s="5"/>
-      <c r="K352" s="7"/>
+      <c r="K352" s="7">
+        <v>40.93e6</v>
+      </c>
       <c r="L352" s="7"/>
     </row>
     <row r="353" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10267,28 +10269,26 @@
         <v>2024</v>
       </c>
       <c r="C353" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E353" s="10"/>
       <c r="F353" s="8">
-        <v>202401</v>
+        <v>202404</v>
       </c>
       <c r="G353" s="5">
-        <v>411.026e6</v>
+        <v>46.0371028e6</v>
       </c>
       <c r="H353" s="5">
-        <v>27.3867129e6</v>
+        <v>11.59539111e6</v>
       </c>
       <c r="I353" s="5">
-        <v>27.3867129e6</v>
+        <v>11.59539111e6</v>
       </c>
       <c r="J353" s="5"/>
-      <c r="K353" s="7">
-        <v>472.848e6</v>
-      </c>
+      <c r="K353" s="7"/>
       <c r="L353" s="7"/>
     </row>
     <row r="354" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10296,26 +10296,28 @@
         <v>2024</v>
       </c>
       <c r="C354" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E354" s="10"/>
       <c r="F354" s="8">
-        <v>202402</v>
+        <v>202405</v>
       </c>
       <c r="G354" s="5">
-        <v>3.814e6</v>
+        <v>2.32046167e6</v>
       </c>
       <c r="H354" s="5">
-        <v>36.27227431e6</v>
+        <v>1.62312611e6</v>
       </c>
       <c r="I354" s="5">
-        <v>36.27227431e6</v>
+        <v>1.62312611e6</v>
       </c>
       <c r="J354" s="5"/>
-      <c r="K354" s="7"/>
+      <c r="K354" s="7">
+        <v>1.8e6</v>
+      </c>
       <c r="L354" s="7"/>
     </row>
     <row r="355" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10323,23 +10325,23 @@
         <v>2024</v>
       </c>
       <c r="C355" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E355" s="10"/>
       <c r="F355" s="8">
-        <v>202403</v>
+        <v>202406</v>
       </c>
       <c r="G355" s="5">
-        <v>28.934e6</v>
+        <v>-79.19266013e6</v>
       </c>
       <c r="H355" s="5">
-        <v>36.5762096e6</v>
+        <v>11.61033987e6</v>
       </c>
       <c r="I355" s="5">
-        <v>36.5762096e6</v>
+        <v>11.61033987e6</v>
       </c>
       <c r="J355" s="5"/>
       <c r="K355" s="7"/>
@@ -10350,23 +10352,23 @@
         <v>2024</v>
       </c>
       <c r="C356" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E356" s="10"/>
       <c r="F356" s="8">
-        <v>202404</v>
+        <v>202407</v>
       </c>
       <c r="G356" s="5">
-        <v>-1.90508348e6</v>
+        <v>5.07710586e6</v>
       </c>
       <c r="H356" s="5">
-        <v>38.42325196e6</v>
+        <v>5.07710586e6</v>
       </c>
       <c r="I356" s="5">
-        <v>38.42325196e6</v>
+        <v>5.07710586e6</v>
       </c>
       <c r="J356" s="5"/>
       <c r="K356" s="7"/>
@@ -10377,21 +10379,23 @@
         <v>2024</v>
       </c>
       <c r="C357" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E357" s="10"/>
       <c r="F357" s="8">
-        <v>202405</v>
-      </c>
-      <c r="G357" s="5"/>
+        <v>202408</v>
+      </c>
+      <c r="G357" s="5">
+        <v>2.6760148e6</v>
+      </c>
       <c r="H357" s="5">
-        <v>37.11827575e6</v>
+        <v>12.34113791e6</v>
       </c>
       <c r="I357" s="5">
-        <v>37.11827575e6</v>
+        <v>12.34113791e6</v>
       </c>
       <c r="J357" s="5"/>
       <c r="K357" s="7"/>
@@ -10409,17 +10413,21 @@
       </c>
       <c r="E358" s="10"/>
       <c r="F358" s="8">
-        <v>202406</v>
-      </c>
-      <c r="G358" s="5"/>
+        <v>202401</v>
+      </c>
+      <c r="G358" s="5">
+        <v>411.026e6</v>
+      </c>
       <c r="H358" s="5">
-        <v>37.25538219e6</v>
+        <v>27.3867129e6</v>
       </c>
       <c r="I358" s="5">
-        <v>37.25538219e6</v>
+        <v>27.3867129e6</v>
       </c>
       <c r="J358" s="5"/>
-      <c r="K358" s="7"/>
+      <c r="K358" s="7">
+        <v>472.848e6</v>
+      </c>
       <c r="L358" s="7"/>
     </row>
     <row r="359" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -10434,14 +10442,16 @@
       </c>
       <c r="E359" s="10"/>
       <c r="F359" s="8">
-        <v>202407</v>
-      </c>
-      <c r="G359" s="5"/>
+        <v>202402</v>
+      </c>
+      <c r="G359" s="5">
+        <v>3.814e6</v>
+      </c>
       <c r="H359" s="5">
-        <v>38.00379096e6</v>
+        <v>36.27227431e6</v>
       </c>
       <c r="I359" s="5">
-        <v>38.00379096e6</v>
+        <v>36.27227431e6</v>
       </c>
       <c r="J359" s="5"/>
       <c r="K359" s="7"/>
@@ -10452,50 +10462,204 @@
         <v>2024</v>
       </c>
       <c r="C360" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="8">
+        <v>202403</v>
+      </c>
+      <c r="G360" s="5">
+        <v>28.934e6</v>
+      </c>
+      <c r="H360" s="5">
+        <v>36.5762096e6</v>
+      </c>
+      <c r="I360" s="5">
+        <v>36.5762096e6</v>
+      </c>
+      <c r="J360" s="5"/>
+      <c r="K360" s="7"/>
+      <c r="L360" s="7"/>
+    </row>
+    <row r="361" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B361" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C361" s="9">
+        <v>6</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" s="10"/>
+      <c r="F361" s="8">
+        <v>202404</v>
+      </c>
+      <c r="G361" s="5">
+        <v>-1.90508348e6</v>
+      </c>
+      <c r="H361" s="5">
+        <v>38.42325196e6</v>
+      </c>
+      <c r="I361" s="5">
+        <v>38.42325196e6</v>
+      </c>
+      <c r="J361" s="5"/>
+      <c r="K361" s="7"/>
+      <c r="L361" s="7"/>
+    </row>
+    <row r="362" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B362" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C362" s="9">
+        <v>6</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362" s="10"/>
+      <c r="F362" s="8">
+        <v>202405</v>
+      </c>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5">
+        <v>37.11827575e6</v>
+      </c>
+      <c r="I362" s="5">
+        <v>37.11827575e6</v>
+      </c>
+      <c r="J362" s="5"/>
+      <c r="K362" s="7"/>
+      <c r="L362" s="7"/>
+    </row>
+    <row r="363" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B363" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C363" s="9">
+        <v>6</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E363" s="10"/>
+      <c r="F363" s="8">
+        <v>202406</v>
+      </c>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5">
+        <v>37.25538219e6</v>
+      </c>
+      <c r="I363" s="5">
+        <v>37.25538219e6</v>
+      </c>
+      <c r="J363" s="5"/>
+      <c r="K363" s="7"/>
+      <c r="L363" s="7"/>
+    </row>
+    <row r="364" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B364" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C364" s="9">
+        <v>6</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" s="10"/>
+      <c r="F364" s="8">
+        <v>202407</v>
+      </c>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5">
+        <v>38.00379096e6</v>
+      </c>
+      <c r="I364" s="5">
+        <v>38.00379096e6</v>
+      </c>
+      <c r="J364" s="5"/>
+      <c r="K364" s="7"/>
+      <c r="L364" s="7"/>
+    </row>
+    <row r="365" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B365" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C365" s="9">
+        <v>6</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E365" s="10"/>
+      <c r="F365" s="8">
+        <v>202408</v>
+      </c>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5">
+        <v>37.5387489e6</v>
+      </c>
+      <c r="I365" s="5">
+        <v>37.5387489e6</v>
+      </c>
+      <c r="J365" s="5"/>
+      <c r="K365" s="7"/>
+      <c r="L365" s="7"/>
+    </row>
+    <row r="366" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B366" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C366" s="9">
+        <v>9</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E366" s="10"/>
+      <c r="F366" s="8">
         <v>202401</v>
       </c>
-      <c r="G360" s="5"/>
-      <c r="H360" s="5"/>
-      <c r="I360" s="5"/>
-      <c r="J360" s="5"/>
-      <c r="K360" s="7">
-        <v>1325.38637689e6</v>
-      </c>
-      <c r="L360" s="7"/>
-    </row>
-    <row r="361" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="B361" s="11"/>
-      <c r="C361" s="11"/>
-      <c r="D361" s="12" t="s">
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="7">
+        <v>1324.90137689e6</v>
+      </c>
+      <c r="L366" s="7"/>
+    </row>
+    <row r="367" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B367" s="11"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E361" s="12"/>
-      <c r="F361" s="11"/>
-      <c r="G361" s="13">
-        <v>171831.91739684e6</v>
-      </c>
-      <c r="H361" s="13">
-        <v>156840.38849924e6</v>
-      </c>
-      <c r="I361" s="13">
-        <v>152798.07165003e6</v>
-      </c>
-      <c r="J361" s="13"/>
-      <c r="K361" s="14">
-        <v>48157.26348427e6</v>
-      </c>
-      <c r="L361" s="14"/>
-    </row>
-    <row r="362" s="1" customFormat="1" ht="27.1983" customHeight="1"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="13">
+        <v>172939.19123962e6</v>
+      </c>
+      <c r="H367" s="13">
+        <v>158448.69721292e6</v>
+      </c>
+      <c r="I367" s="13">
+        <v>155218.49723003e6</v>
+      </c>
+      <c r="J367" s="13"/>
+      <c r="K367" s="14">
+        <v>48424.26112124e6</v>
+      </c>
+      <c r="L367" s="14"/>
+    </row>
+    <row r="368" s="1" customFormat="1" ht="27.1983" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1127">
+  <mergeCells count="1145">
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B28:D28"/>
@@ -10792,6 +10956,12 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D360:E360"/>
     <mergeCell ref="D361:E361"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D363:E363"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="D367:E367"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E40"/>
@@ -11164,6 +11334,12 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I360:J360"/>
     <mergeCell ref="I361:J361"/>
+    <mergeCell ref="I362:J362"/>
+    <mergeCell ref="I363:J363"/>
+    <mergeCell ref="I364:J364"/>
+    <mergeCell ref="I365:J365"/>
+    <mergeCell ref="I366:J366"/>
+    <mergeCell ref="I367:J367"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I39:J40"/>
@@ -11515,6 +11691,12 @@
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K360:L360"/>
     <mergeCell ref="K361:L361"/>
+    <mergeCell ref="K362:L362"/>
+    <mergeCell ref="K363:L363"/>
+    <mergeCell ref="K364:L364"/>
+    <mergeCell ref="K365:L365"/>
+    <mergeCell ref="K366:L366"/>
+    <mergeCell ref="K367:L367"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L40"/>
@@ -11631,7 +11813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1005"/>
+  <dimension ref="A1:J1023"/>
   <cols>
     <col min="1" max="1" width="502624e-6" customWidth="1"/>
     <col min="2" max="2" width="10.651668" customWidth="1"/>
@@ -14850,7 +15032,7 @@
         <v>202004</v>
       </c>
       <c r="G121" s="27">
-        <v>9.80259623000001e6</v>
+        <v>9.80259623e6</v>
       </c>
       <c r="H121" s="27">
         <v>27.33367063e6</v>
@@ -14904,7 +15086,7 @@
         <v>202006</v>
       </c>
       <c r="G123" s="27">
-        <v>-5.03489229000001e6</v>
+        <v>-5.03489229e6</v>
       </c>
       <c r="H123" s="27">
         <v>39.3697078e6</v>
@@ -30877,7 +31059,7 @@
         <v>202308</v>
       </c>
       <c r="G720" s="27">
-        <v>-23.2732299399997e6</v>
+        <v>-23.2732299399998e6</v>
       </c>
       <c r="H720" s="27">
         <v>437.51904789e6</v>
@@ -34510,7 +34692,7 @@
         <v>202308</v>
       </c>
       <c r="G855" s="27">
-        <v>110462.760000001</v>
+        <v>110462.760000002</v>
       </c>
       <c r="H855" s="27">
         <v>13.71911335e6</v>
@@ -35147,26 +35329,24 @@
         <v>44</v>
       </c>
       <c r="D879" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E879" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F879" s="26">
-        <v>202401</v>
+        <v>202408</v>
       </c>
       <c r="G879" s="27">
-        <v>22.45266475e6</v>
+        <v>-1.22</v>
       </c>
       <c r="H879" s="27">
-        <v>2.07082381e6</v>
+        <v>-1.22</v>
       </c>
       <c r="I879" s="27">
-        <v>2.0157849e6</v>
-      </c>
-      <c r="J879" s="28">
-        <v>61.02822842e6</v>
-      </c>
+        <v>691528.05</v>
+      </c>
+      <c r="J879" s="28"/>
     </row>
     <row r="880" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B880" s="22">
@@ -35182,18 +35362,20 @@
         <v>11</v>
       </c>
       <c r="F880" s="26">
-        <v>202402</v>
+        <v>202401</v>
       </c>
       <c r="G880" s="27">
-        <v>6.39218599e6</v>
+        <v>22.45266475e6</v>
       </c>
       <c r="H880" s="27">
-        <v>3.47239402e6</v>
+        <v>2.07082381e6</v>
       </c>
       <c r="I880" s="27">
-        <v>3.36127914e6</v>
-      </c>
-      <c r="J880" s="28"/>
+        <v>2.0157849e6</v>
+      </c>
+      <c r="J880" s="28">
+        <v>61.02822842e6</v>
+      </c>
     </row>
     <row r="881" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B881" s="22">
@@ -35209,16 +35391,16 @@
         <v>11</v>
       </c>
       <c r="F881" s="26">
-        <v>202403</v>
+        <v>202402</v>
       </c>
       <c r="G881" s="27">
-        <v>2.16505021e6</v>
+        <v>6.39218599e6</v>
       </c>
       <c r="H881" s="27">
-        <v>3.58379583e6</v>
+        <v>3.47239402e6</v>
       </c>
       <c r="I881" s="27">
-        <v>3.65275189e6</v>
+        <v>3.36127914e6</v>
       </c>
       <c r="J881" s="28"/>
     </row>
@@ -35236,16 +35418,16 @@
         <v>11</v>
       </c>
       <c r="F882" s="26">
-        <v>202404</v>
+        <v>202403</v>
       </c>
       <c r="G882" s="27">
-        <v>4.2426547e6</v>
+        <v>2.16505021e6</v>
       </c>
       <c r="H882" s="27">
-        <v>3.90317532e6</v>
+        <v>3.58379583e6</v>
       </c>
       <c r="I882" s="27">
-        <v>3.778651e6</v>
+        <v>3.65275189e6</v>
       </c>
       <c r="J882" s="28"/>
     </row>
@@ -35263,16 +35445,16 @@
         <v>11</v>
       </c>
       <c r="F883" s="26">
-        <v>202405</v>
+        <v>202404</v>
       </c>
       <c r="G883" s="27">
-        <v>738659.36</v>
+        <v>4.2426547e6</v>
       </c>
       <c r="H883" s="27">
-        <v>4.05178939e6</v>
+        <v>3.90317532e6</v>
       </c>
       <c r="I883" s="27">
-        <v>4.02079483e6</v>
+        <v>3.778651e6</v>
       </c>
       <c r="J883" s="28"/>
     </row>
@@ -35290,16 +35472,16 @@
         <v>11</v>
       </c>
       <c r="F884" s="26">
-        <v>202406</v>
+        <v>202405</v>
       </c>
       <c r="G884" s="27">
-        <v>5.21801161e6</v>
+        <v>738659.36</v>
       </c>
       <c r="H884" s="27">
-        <v>4.05493592e6</v>
+        <v>4.05178939e6</v>
       </c>
       <c r="I884" s="27">
-        <v>3.97211107e6</v>
+        <v>4.02079483e6</v>
       </c>
       <c r="J884" s="28"/>
     </row>
@@ -35317,16 +35499,16 @@
         <v>11</v>
       </c>
       <c r="F885" s="26">
-        <v>202407</v>
+        <v>202406</v>
       </c>
       <c r="G885" s="27">
-        <v>2.8700721e6</v>
+        <v>5.21801161e6</v>
       </c>
       <c r="H885" s="27">
-        <v>4.09762982e6</v>
+        <v>4.05493592e6</v>
       </c>
       <c r="I885" s="27">
-        <v>4.41819937e6</v>
+        <v>3.97211107e6</v>
       </c>
       <c r="J885" s="28"/>
     </row>
@@ -35338,22 +35520,24 @@
         <v>44</v>
       </c>
       <c r="D886" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E886" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F886" s="26">
-        <v>202401</v>
+        <v>202407</v>
       </c>
       <c r="G886" s="27">
-        <v>6024.75</v>
-      </c>
-      <c r="H886" s="27"/>
-      <c r="I886" s="27"/>
-      <c r="J886" s="28">
-        <v>10.10092e6</v>
-      </c>
+        <v>3.01311781e6</v>
+      </c>
+      <c r="H886" s="27">
+        <v>4.12876306e6</v>
+      </c>
+      <c r="I886" s="27">
+        <v>4.44706093e6</v>
+      </c>
+      <c r="J886" s="28"/>
     </row>
     <row r="887" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B887" s="22">
@@ -35363,20 +35547,22 @@
         <v>44</v>
       </c>
       <c r="D887" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E887" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F887" s="26">
-        <v>202402</v>
-      </c>
-      <c r="G887" s="27"/>
+        <v>202408</v>
+      </c>
+      <c r="G887" s="27">
+        <v>767397.38</v>
+      </c>
       <c r="H887" s="27">
-        <v>4960</v>
+        <v>1.84783093e6</v>
       </c>
       <c r="I887" s="27">
-        <v>4960</v>
+        <v>1.80575946e6</v>
       </c>
       <c r="J887" s="28"/>
     </row>
@@ -35394,14 +35580,16 @@
         <v>12</v>
       </c>
       <c r="F888" s="26">
-        <v>202403</v>
+        <v>202401</v>
       </c>
       <c r="G888" s="27">
-        <v>287287.66</v>
+        <v>6024.75</v>
       </c>
       <c r="H888" s="27"/>
       <c r="I888" s="27"/>
-      <c r="J888" s="28"/>
+      <c r="J888" s="28">
+        <v>10.10092e6</v>
+      </c>
     </row>
     <row r="889" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B889" s="22">
@@ -35417,18 +35605,16 @@
         <v>12</v>
       </c>
       <c r="F889" s="26">
-        <v>202404</v>
+        <v>202402</v>
       </c>
       <c r="G889" s="27"/>
       <c r="H889" s="27">
-        <v>1064.75</v>
+        <v>4960</v>
       </c>
       <c r="I889" s="27">
-        <v>1064.75</v>
-      </c>
-      <c r="J889" s="28">
-        <v>3.5e6</v>
-      </c>
+        <v>4960</v>
+      </c>
+      <c r="J889" s="28"/>
     </row>
     <row r="890" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B890" s="22">
@@ -35444,17 +35630,13 @@
         <v>12</v>
       </c>
       <c r="F890" s="26">
-        <v>202405</v>
+        <v>202403</v>
       </c>
       <c r="G890" s="27">
-        <v>644795.14</v>
-      </c>
-      <c r="H890" s="27">
-        <v>11027.76</v>
-      </c>
-      <c r="I890" s="27">
-        <v>11027.76</v>
-      </c>
+        <v>287287.66</v>
+      </c>
+      <c r="H890" s="27"/>
+      <c r="I890" s="27"/>
       <c r="J890" s="28"/>
     </row>
     <row r="891" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -35471,18 +35653,18 @@
         <v>12</v>
       </c>
       <c r="F891" s="26">
-        <v>202406</v>
-      </c>
-      <c r="G891" s="27">
-        <v>0</v>
-      </c>
+        <v>202404</v>
+      </c>
+      <c r="G891" s="27"/>
       <c r="H891" s="27">
-        <v>225295.14</v>
+        <v>1064.75</v>
       </c>
       <c r="I891" s="27">
-        <v>225295.14</v>
-      </c>
-      <c r="J891" s="28"/>
+        <v>1064.75</v>
+      </c>
+      <c r="J891" s="28">
+        <v>3.5e6</v>
+      </c>
     </row>
     <row r="892" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B892" s="22">
@@ -35492,106 +35674,98 @@
         <v>44</v>
       </c>
       <c r="D892" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E892" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F892" s="26">
-        <v>202401</v>
-      </c>
-      <c r="G892" s="27"/>
-      <c r="H892" s="27"/>
-      <c r="I892" s="27"/>
-      <c r="J892" s="28">
-        <v>20000</v>
-      </c>
+        <v>202405</v>
+      </c>
+      <c r="G892" s="27">
+        <v>644795.14</v>
+      </c>
+      <c r="H892" s="27">
+        <v>11027.76</v>
+      </c>
+      <c r="I892" s="27">
+        <v>11027.76</v>
+      </c>
+      <c r="J892" s="28"/>
     </row>
     <row r="893" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B893" s="22">
         <v>2024</v>
       </c>
       <c r="C893" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D893" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E893" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F893" s="26">
-        <v>202401</v>
+        <v>202406</v>
       </c>
       <c r="G893" s="27">
-        <v>3462.64339938e6</v>
+        <v>0</v>
       </c>
       <c r="H893" s="27">
-        <v>1545.6855818e6</v>
+        <v>225295.14</v>
       </c>
       <c r="I893" s="27">
-        <v>1503.49820169e6</v>
-      </c>
-      <c r="J893" s="28">
-        <v>20109.6901643e6</v>
-      </c>
+        <v>225295.14</v>
+      </c>
+      <c r="J893" s="28"/>
     </row>
     <row r="894" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B894" s="22">
         <v>2024</v>
       </c>
       <c r="C894" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D894" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E894" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F894" s="26">
-        <v>202402</v>
-      </c>
-      <c r="G894" s="27">
-        <v>-57.9703115800002e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G894" s="27"/>
       <c r="H894" s="27">
-        <v>1582.33439014e6</v>
+        <v>1684.9</v>
       </c>
       <c r="I894" s="27">
-        <v>1562.07005396e6</v>
-      </c>
-      <c r="J894" s="28">
-        <v>193.31322516e6</v>
-      </c>
+        <v>1684.9</v>
+      </c>
+      <c r="J894" s="28"/>
     </row>
     <row r="895" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B895" s="22">
         <v>2024</v>
       </c>
       <c r="C895" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D895" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E895" s="25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F895" s="26">
-        <v>202403</v>
-      </c>
-      <c r="G895" s="27">
-        <v>1537.83928805e6</v>
-      </c>
-      <c r="H895" s="27">
-        <v>1569.61905903e6</v>
-      </c>
-      <c r="I895" s="27">
-        <v>1550.61533957e6</v>
-      </c>
+        <v>202401</v>
+      </c>
+      <c r="G895" s="27"/>
+      <c r="H895" s="27"/>
+      <c r="I895" s="27"/>
       <c r="J895" s="28">
-        <v>38000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="896" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -35608,19 +35782,19 @@
         <v>9</v>
       </c>
       <c r="F896" s="26">
-        <v>202404</v>
+        <v>202401</v>
       </c>
       <c r="G896" s="27">
-        <v>1741.03273456e6</v>
+        <v>3462.64339938e6</v>
       </c>
       <c r="H896" s="27">
-        <v>1763.61242994e6</v>
+        <v>1545.6855818e6</v>
       </c>
       <c r="I896" s="27">
-        <v>1575.65503737e6</v>
+        <v>1503.49820169e6</v>
       </c>
       <c r="J896" s="28">
-        <v>426000</v>
+        <v>20109.4211643e6</v>
       </c>
     </row>
     <row r="897" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -35637,18 +35811,20 @@
         <v>9</v>
       </c>
       <c r="F897" s="26">
-        <v>202405</v>
+        <v>202402</v>
       </c>
       <c r="G897" s="27">
-        <v>1604.57777582e6</v>
+        <v>-57.9703115799999e6</v>
       </c>
       <c r="H897" s="27">
-        <v>1620.30944081e6</v>
+        <v>1582.33439014e6</v>
       </c>
       <c r="I897" s="27">
-        <v>1621.99937352e6</v>
-      </c>
-      <c r="J897" s="28"/>
+        <v>1562.07005396e6</v>
+      </c>
+      <c r="J897" s="28">
+        <v>193.31322516e6</v>
+      </c>
     </row>
     <row r="898" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B898" s="22">
@@ -35664,19 +35840,19 @@
         <v>9</v>
       </c>
       <c r="F898" s="26">
-        <v>202406</v>
+        <v>202403</v>
       </c>
       <c r="G898" s="27">
-        <v>1725.84879987e6</v>
+        <v>1537.83928805e6</v>
       </c>
       <c r="H898" s="27">
-        <v>1755.84042985e6</v>
+        <v>1569.61905903e6</v>
       </c>
       <c r="I898" s="27">
-        <v>1750.14469373e6</v>
+        <v>1550.61533957e6</v>
       </c>
       <c r="J898" s="28">
-        <v>3e6</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="899" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -35693,19 +35869,19 @@
         <v>9</v>
       </c>
       <c r="F899" s="26">
-        <v>202407</v>
+        <v>202404</v>
       </c>
       <c r="G899" s="27">
-        <v>1604.15881649e6</v>
+        <v>1741.03273456e6</v>
       </c>
       <c r="H899" s="27">
-        <v>1630.4252127e6</v>
+        <v>1763.61242994e6</v>
       </c>
       <c r="I899" s="27">
-        <v>1207.32142576e6</v>
+        <v>1575.65503737e6</v>
       </c>
       <c r="J899" s="28">
-        <v>1e6</v>
+        <v>426000</v>
       </c>
     </row>
     <row r="900" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -35716,26 +35892,24 @@
         <v>45</v>
       </c>
       <c r="D900" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E900" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F900" s="26">
-        <v>202401</v>
+        <v>202405</v>
       </c>
       <c r="G900" s="27">
-        <v>500.12070833e6</v>
+        <v>1604.57777582e6</v>
       </c>
       <c r="H900" s="27">
-        <v>40.91265249e6</v>
+        <v>1620.30944081e6</v>
       </c>
       <c r="I900" s="27">
-        <v>40.91265249e6</v>
-      </c>
-      <c r="J900" s="28">
-        <v>784.688e6</v>
-      </c>
+        <v>1621.99937352e6</v>
+      </c>
+      <c r="J900" s="28"/>
     </row>
     <row r="901" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B901" s="22">
@@ -35745,24 +35919,26 @@
         <v>45</v>
       </c>
       <c r="D901" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E901" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F901" s="26">
-        <v>202402</v>
+        <v>202406</v>
       </c>
       <c r="G901" s="27">
-        <v>143.986e6</v>
+        <v>1725.84879987e6</v>
       </c>
       <c r="H901" s="27">
-        <v>48.34449612e6</v>
+        <v>1755.84042985e6</v>
       </c>
       <c r="I901" s="27">
-        <v>48.34187095e6</v>
-      </c>
-      <c r="J901" s="28"/>
+        <v>1750.14469373e6</v>
+      </c>
+      <c r="J901" s="28">
+        <v>3e6</v>
+      </c>
     </row>
     <row r="902" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B902" s="22">
@@ -35772,24 +35948,26 @@
         <v>45</v>
       </c>
       <c r="D902" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E902" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F902" s="26">
-        <v>202403</v>
+        <v>202407</v>
       </c>
       <c r="G902" s="27">
-        <v>103.67936706e6</v>
+        <v>1603.77295327e6</v>
       </c>
       <c r="H902" s="27">
-        <v>49.09519699e6</v>
+        <v>1632.28625579e6</v>
       </c>
       <c r="I902" s="27">
-        <v>49.09782216e6</v>
-      </c>
-      <c r="J902" s="28"/>
+        <v>1637.41765434e6</v>
+      </c>
+      <c r="J902" s="28">
+        <v>1e6</v>
+      </c>
     </row>
     <row r="903" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B903" s="22">
@@ -35799,22 +35977,22 @@
         <v>45</v>
       </c>
       <c r="D903" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E903" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F903" s="26">
-        <v>202404</v>
+        <v>202408</v>
       </c>
       <c r="G903" s="27">
-        <v>-436944.63</v>
+        <v>29.38013942e6</v>
       </c>
       <c r="H903" s="27">
-        <v>50.82204603e6</v>
+        <v>21.4051228e6</v>
       </c>
       <c r="I903" s="27">
-        <v>50.82204603e6</v>
+        <v>55.34488629e6</v>
       </c>
       <c r="J903" s="28"/>
     </row>
@@ -35832,16 +36010,20 @@
         <v>10</v>
       </c>
       <c r="F904" s="26">
-        <v>202405</v>
-      </c>
-      <c r="G904" s="27"/>
+        <v>202401</v>
+      </c>
+      <c r="G904" s="27">
+        <v>500.12070833e6</v>
+      </c>
       <c r="H904" s="27">
-        <v>49.76035827e6</v>
+        <v>40.91265249e6</v>
       </c>
       <c r="I904" s="27">
-        <v>49.76035827e6</v>
-      </c>
-      <c r="J904" s="28"/>
+        <v>40.91265249e6</v>
+      </c>
+      <c r="J904" s="28">
+        <v>784.688e6</v>
+      </c>
     </row>
     <row r="905" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B905" s="22">
@@ -35857,14 +36039,16 @@
         <v>10</v>
       </c>
       <c r="F905" s="26">
-        <v>202406</v>
-      </c>
-      <c r="G905" s="27"/>
+        <v>202402</v>
+      </c>
+      <c r="G905" s="27">
+        <v>143.986e6</v>
+      </c>
       <c r="H905" s="27">
-        <v>133.40636023e6</v>
+        <v>48.34449612e6</v>
       </c>
       <c r="I905" s="27">
-        <v>133.40636022e6</v>
+        <v>48.34187095e6</v>
       </c>
       <c r="J905" s="28"/>
     </row>
@@ -35882,14 +36066,16 @@
         <v>10</v>
       </c>
       <c r="F906" s="26">
-        <v>202407</v>
-      </c>
-      <c r="G906" s="27"/>
+        <v>202403</v>
+      </c>
+      <c r="G906" s="27">
+        <v>103.67936706e6</v>
+      </c>
       <c r="H906" s="27">
-        <v>50.96394887e6</v>
+        <v>49.09519699e6</v>
       </c>
       <c r="I906" s="27">
-        <v>50.96394888e6</v>
+        <v>49.09782216e6</v>
       </c>
       <c r="J906" s="28"/>
     </row>
@@ -35901,26 +36087,24 @@
         <v>45</v>
       </c>
       <c r="D907" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E907" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F907" s="26">
-        <v>202401</v>
+        <v>202404</v>
       </c>
       <c r="G907" s="27">
-        <v>4345.44716735e6</v>
+        <v>-436944.63</v>
       </c>
       <c r="H907" s="27">
-        <v>668.79096254e6</v>
+        <v>50.82204603e6</v>
       </c>
       <c r="I907" s="27">
-        <v>426.3365994e6</v>
-      </c>
-      <c r="J907" s="28">
-        <v>11295.63196987e6</v>
-      </c>
+        <v>50.82204603e6</v>
+      </c>
+      <c r="J907" s="28"/>
     </row>
     <row r="908" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B908" s="22">
@@ -35930,26 +36114,22 @@
         <v>45</v>
       </c>
       <c r="D908" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E908" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F908" s="26">
-        <v>202402</v>
-      </c>
-      <c r="G908" s="27">
-        <v>2427.0213915e6</v>
-      </c>
+        <v>202405</v>
+      </c>
+      <c r="G908" s="27"/>
       <c r="H908" s="27">
-        <v>858.4586546e6</v>
+        <v>49.76035827e6</v>
       </c>
       <c r="I908" s="27">
-        <v>787.61200593e6</v>
-      </c>
-      <c r="J908" s="28">
-        <v>157.91055169e6</v>
-      </c>
+        <v>49.76035827e6</v>
+      </c>
+      <c r="J908" s="28"/>
     </row>
     <row r="909" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B909" s="22">
@@ -35959,26 +36139,22 @@
         <v>45</v>
       </c>
       <c r="D909" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E909" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F909" s="26">
-        <v>202403</v>
-      </c>
-      <c r="G909" s="27">
-        <v>688.23418885e6</v>
-      </c>
+        <v>202406</v>
+      </c>
+      <c r="G909" s="27"/>
       <c r="H909" s="27">
-        <v>625.98506428e6</v>
+        <v>133.40636023e6</v>
       </c>
       <c r="I909" s="27">
-        <v>852.59755322e6</v>
-      </c>
-      <c r="J909" s="28">
-        <v>1159.47031778e6</v>
-      </c>
+        <v>133.40636022e6</v>
+      </c>
+      <c r="J909" s="28"/>
     </row>
     <row r="910" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B910" s="22">
@@ -35988,26 +36164,22 @@
         <v>45</v>
       </c>
       <c r="D910" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E910" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F910" s="26">
-        <v>202404</v>
-      </c>
-      <c r="G910" s="27">
-        <v>1074.55423185e6</v>
-      </c>
+        <v>202407</v>
+      </c>
+      <c r="G910" s="27"/>
       <c r="H910" s="27">
-        <v>1141.77198223e6</v>
+        <v>50.96394887e6</v>
       </c>
       <c r="I910" s="27">
-        <v>918.12794576e6</v>
-      </c>
-      <c r="J910" s="28">
-        <v>179.26233552e6</v>
-      </c>
+        <v>50.96394888e6</v>
+      </c>
+      <c r="J910" s="28"/>
     </row>
     <row r="911" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B911" s="22">
@@ -36017,26 +36189,22 @@
         <v>45</v>
       </c>
       <c r="D911" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E911" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F911" s="26">
-        <v>202405</v>
-      </c>
-      <c r="G911" s="27">
-        <v>349.87325075e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G911" s="27"/>
       <c r="H911" s="27">
-        <v>970.87467253e6</v>
+        <v>51.30904758e6</v>
       </c>
       <c r="I911" s="27">
-        <v>926.56034487e6</v>
-      </c>
-      <c r="J911" s="28">
-        <v>7.75419884e6</v>
-      </c>
+        <v>51.30904758e6</v>
+      </c>
+      <c r="J911" s="28"/>
     </row>
     <row r="912" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B912" s="22">
@@ -36052,19 +36220,19 @@
         <v>11</v>
       </c>
       <c r="F912" s="26">
-        <v>202406</v>
+        <v>202401</v>
       </c>
       <c r="G912" s="27">
-        <v>751.11172763e6</v>
+        <v>4345.44716735e6</v>
       </c>
       <c r="H912" s="27">
-        <v>763.90702662e6</v>
+        <v>668.79096254e6</v>
       </c>
       <c r="I912" s="27">
-        <v>1030.07706835e6</v>
+        <v>426.3365994e6</v>
       </c>
       <c r="J912" s="28">
-        <v>134.5446309e6</v>
+        <v>11313.52385333e6</v>
       </c>
     </row>
     <row r="913" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36081,19 +36249,19 @@
         <v>11</v>
       </c>
       <c r="F913" s="26">
-        <v>202407</v>
+        <v>202402</v>
       </c>
       <c r="G913" s="27">
-        <v>1025.81566904e6</v>
+        <v>2427.0213915e6</v>
       </c>
       <c r="H913" s="27">
-        <v>839.31742695e6</v>
+        <v>858.4586546e6</v>
       </c>
       <c r="I913" s="27">
-        <v>770.78558975e6</v>
+        <v>787.61200593e6</v>
       </c>
       <c r="J913" s="28">
-        <v>118.31257285e6</v>
+        <v>157.91055169e6</v>
       </c>
     </row>
     <row r="914" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36104,25 +36272,25 @@
         <v>45</v>
       </c>
       <c r="D914" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E914" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F914" s="26">
-        <v>202401</v>
+        <v>202403</v>
       </c>
       <c r="G914" s="27">
-        <v>445.92614484e6</v>
+        <v>688.23418885e6</v>
       </c>
       <c r="H914" s="27">
-        <v>19.21230203e6</v>
+        <v>625.98506428e6</v>
       </c>
       <c r="I914" s="27">
-        <v>5.03989323e6</v>
+        <v>852.59755322e6</v>
       </c>
       <c r="J914" s="28">
-        <v>3421.12585631e6</v>
+        <v>1156.86094225e6</v>
       </c>
     </row>
     <row r="915" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36133,25 +36301,25 @@
         <v>45</v>
       </c>
       <c r="D915" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E915" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F915" s="26">
-        <v>202402</v>
+        <v>202404</v>
       </c>
       <c r="G915" s="27">
-        <v>399.32927437e6</v>
+        <v>1074.55423185e6</v>
       </c>
       <c r="H915" s="27">
-        <v>85.31493665e6</v>
+        <v>1141.77198223e6</v>
       </c>
       <c r="I915" s="27">
-        <v>84.45824065e6</v>
+        <v>918.12794576e6</v>
       </c>
       <c r="J915" s="28">
-        <v>16.88673583e6</v>
+        <v>180.26233552e6</v>
       </c>
     </row>
     <row r="916" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36162,25 +36330,25 @@
         <v>45</v>
       </c>
       <c r="D916" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E916" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F916" s="26">
-        <v>202403</v>
+        <v>202405</v>
       </c>
       <c r="G916" s="27">
-        <v>178.01424542e6</v>
+        <v>349.87325075e6</v>
       </c>
       <c r="H916" s="27">
-        <v>80.29371543e6</v>
+        <v>970.87467253e6</v>
       </c>
       <c r="I916" s="27">
-        <v>88.28989328e6</v>
+        <v>926.56034487e6</v>
       </c>
       <c r="J916" s="28">
-        <v>530.13956629e6</v>
+        <v>7.75419884e6</v>
       </c>
     </row>
     <row r="917" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36191,25 +36359,25 @@
         <v>45</v>
       </c>
       <c r="D917" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E917" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F917" s="26">
-        <v>202404</v>
+        <v>202406</v>
       </c>
       <c r="G917" s="27">
-        <v>511.09690233e6</v>
+        <v>751.11172763e6</v>
       </c>
       <c r="H917" s="27">
-        <v>118.05133108e6</v>
+        <v>763.90702662e6</v>
       </c>
       <c r="I917" s="27">
-        <v>110.5869464e6</v>
+        <v>1030.07706835e6</v>
       </c>
       <c r="J917" s="28">
-        <v>133.61009577e6</v>
+        <v>134.5446309e6</v>
       </c>
     </row>
     <row r="918" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36220,25 +36388,25 @@
         <v>45</v>
       </c>
       <c r="D918" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E918" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F918" s="26">
-        <v>202405</v>
+        <v>202407</v>
       </c>
       <c r="G918" s="27">
-        <v>335.76478763e6</v>
+        <v>1213.1293167e6</v>
       </c>
       <c r="H918" s="27">
-        <v>145.78521586e6</v>
+        <v>1287.07270145e6</v>
       </c>
       <c r="I918" s="27">
-        <v>132.75450325e6</v>
+        <v>1107.38145392e6</v>
       </c>
       <c r="J918" s="28">
-        <v>78.68176608e6</v>
+        <v>118.09885958e6</v>
       </c>
     </row>
     <row r="919" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36249,25 +36417,25 @@
         <v>45</v>
       </c>
       <c r="D919" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E919" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F919" s="26">
-        <v>202406</v>
+        <v>202408</v>
       </c>
       <c r="G919" s="27">
-        <v>264.71287724e6</v>
+        <v>508.20504136e6</v>
       </c>
       <c r="H919" s="27">
-        <v>205.25194786e6</v>
+        <v>612.58506913e6</v>
       </c>
       <c r="I919" s="27">
-        <v>197.44652976e6</v>
+        <v>767.90302003e6</v>
       </c>
       <c r="J919" s="28">
-        <v>72.70334138e6</v>
+        <v>205.37716259e6</v>
       </c>
     </row>
     <row r="920" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36284,19 +36452,19 @@
         <v>12</v>
       </c>
       <c r="F920" s="26">
-        <v>202407</v>
+        <v>202401</v>
       </c>
       <c r="G920" s="27">
-        <v>295.12398896e6</v>
+        <v>445.92614484e6</v>
       </c>
       <c r="H920" s="27">
-        <v>309.48328691e6</v>
+        <v>19.21230203e6</v>
       </c>
       <c r="I920" s="27">
-        <v>245.46605468e6</v>
+        <v>5.03989323e6</v>
       </c>
       <c r="J920" s="28">
-        <v>609.90668389e6</v>
+        <v>3412.64325365e6</v>
       </c>
     </row>
     <row r="921" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36307,25 +36475,25 @@
         <v>45</v>
       </c>
       <c r="D921" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E921" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F921" s="26">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="G921" s="27">
-        <v>1.64356645e6</v>
+        <v>399.32927437e6</v>
       </c>
       <c r="H921" s="27">
-        <v>1.64193045e6</v>
+        <v>85.31493665e6</v>
       </c>
       <c r="I921" s="27">
-        <v>1.64193045e6</v>
+        <v>84.45824065e6</v>
       </c>
       <c r="J921" s="28">
-        <v>44.7422383e6</v>
+        <v>16.88673583e6</v>
       </c>
     </row>
     <row r="922" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36336,25 +36504,25 @@
         <v>45</v>
       </c>
       <c r="D922" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E922" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F922" s="26">
-        <v>202402</v>
+        <v>202403</v>
       </c>
       <c r="G922" s="27">
-        <v>15.19729271e6</v>
+        <v>178.01424542e6</v>
       </c>
       <c r="H922" s="27">
-        <v>15.19892871e6</v>
+        <v>80.29371543e6</v>
       </c>
       <c r="I922" s="27">
-        <v>15.19392871e6</v>
+        <v>88.28989328e6</v>
       </c>
       <c r="J922" s="28">
-        <v>10000</v>
+        <v>532.74894182e6</v>
       </c>
     </row>
     <row r="923" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36365,25 +36533,25 @@
         <v>45</v>
       </c>
       <c r="D923" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E923" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F923" s="26">
-        <v>202403</v>
+        <v>202404</v>
       </c>
       <c r="G923" s="27">
-        <v>2.09733745e6</v>
+        <v>511.09690233e6</v>
       </c>
       <c r="H923" s="27">
-        <v>1.65821434e6</v>
+        <v>118.05133108e6</v>
       </c>
       <c r="I923" s="27">
-        <v>1.66321434e6</v>
+        <v>110.5869464e6</v>
       </c>
       <c r="J923" s="28">
-        <v>40.93e6</v>
+        <v>133.61009577e6</v>
       </c>
     </row>
     <row r="924" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36394,24 +36562,26 @@
         <v>45</v>
       </c>
       <c r="D924" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E924" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F924" s="26">
-        <v>202404</v>
+        <v>202405</v>
       </c>
       <c r="G924" s="27">
-        <v>46.0371028e6</v>
+        <v>335.76478763e6</v>
       </c>
       <c r="H924" s="27">
-        <v>11.59539111e6</v>
+        <v>145.78521586e6</v>
       </c>
       <c r="I924" s="27">
-        <v>11.59539111e6</v>
-      </c>
-      <c r="J924" s="28"/>
+        <v>132.75450325e6</v>
+      </c>
+      <c r="J924" s="28">
+        <v>81.13176608e6</v>
+      </c>
     </row>
     <row r="925" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B925" s="22">
@@ -36421,24 +36591,26 @@
         <v>45</v>
       </c>
       <c r="D925" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E925" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F925" s="26">
-        <v>202405</v>
+        <v>202406</v>
       </c>
       <c r="G925" s="27">
-        <v>2.32046167e6</v>
+        <v>264.71287724e6</v>
       </c>
       <c r="H925" s="27">
-        <v>1.62312611e6</v>
+        <v>205.25194786e6</v>
       </c>
       <c r="I925" s="27">
-        <v>1.62312611e6</v>
-      </c>
-      <c r="J925" s="28"/>
+        <v>197.44652976e6</v>
+      </c>
+      <c r="J925" s="28">
+        <v>79.48203201e6</v>
+      </c>
     </row>
     <row r="926" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B926" s="22">
@@ -36448,24 +36620,26 @@
         <v>45</v>
       </c>
       <c r="D926" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E926" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F926" s="26">
-        <v>202406</v>
+        <v>202407</v>
       </c>
       <c r="G926" s="27">
-        <v>1.80733987e6</v>
+        <v>342.5023501e6</v>
       </c>
       <c r="H926" s="27">
-        <v>11.61033987e6</v>
+        <v>302.62052937e6</v>
       </c>
       <c r="I926" s="27">
-        <v>11.61033987e6</v>
-      </c>
-      <c r="J926" s="28"/>
+        <v>287.69285755e6</v>
+      </c>
+      <c r="J926" s="28">
+        <v>609.90668389e6</v>
+      </c>
     </row>
     <row r="927" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B927" s="22">
@@ -36475,24 +36649,26 @@
         <v>45</v>
       </c>
       <c r="D927" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E927" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F927" s="26">
-        <v>202407</v>
+        <v>202408</v>
       </c>
       <c r="G927" s="27">
-        <v>5.07710586e6</v>
+        <v>236.46685493e6</v>
       </c>
       <c r="H927" s="27">
-        <v>5.07710586e6</v>
+        <v>296.47972347e6</v>
       </c>
       <c r="I927" s="27">
-        <v>5.07710586e6</v>
-      </c>
-      <c r="J927" s="28"/>
+        <v>301.66324251e6</v>
+      </c>
+      <c r="J927" s="28">
+        <v>1.9444816e6</v>
+      </c>
     </row>
     <row r="928" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B928" s="22">
@@ -36502,25 +36678,25 @@
         <v>45</v>
       </c>
       <c r="D928" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E928" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F928" s="26">
         <v>202401</v>
       </c>
       <c r="G928" s="27">
-        <v>411.026e6</v>
+        <v>1.64356645e6</v>
       </c>
       <c r="H928" s="27">
-        <v>27.3867129e6</v>
+        <v>1.64193045e6</v>
       </c>
       <c r="I928" s="27">
-        <v>27.3867129e6</v>
+        <v>1.64193045e6</v>
       </c>
       <c r="J928" s="28">
-        <v>472.848e6</v>
+        <v>44.7222383e6</v>
       </c>
     </row>
     <row r="929" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36531,24 +36707,26 @@
         <v>45</v>
       </c>
       <c r="D929" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E929" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F929" s="26">
         <v>202402</v>
       </c>
       <c r="G929" s="27">
-        <v>3.814e6</v>
+        <v>15.19729271e6</v>
       </c>
       <c r="H929" s="27">
-        <v>36.27227431e6</v>
+        <v>15.19892871e6</v>
       </c>
       <c r="I929" s="27">
-        <v>36.27227431e6</v>
-      </c>
-      <c r="J929" s="28"/>
+        <v>15.19392871e6</v>
+      </c>
+      <c r="J929" s="28">
+        <v>10000</v>
+      </c>
     </row>
     <row r="930" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B930" s="22">
@@ -36558,24 +36736,26 @@
         <v>45</v>
       </c>
       <c r="D930" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E930" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F930" s="26">
         <v>202403</v>
       </c>
       <c r="G930" s="27">
-        <v>28.934e6</v>
+        <v>2.09733745e6</v>
       </c>
       <c r="H930" s="27">
-        <v>36.5762096e6</v>
+        <v>1.65821434e6</v>
       </c>
       <c r="I930" s="27">
-        <v>36.5762096e6</v>
-      </c>
-      <c r="J930" s="28"/>
+        <v>1.66321434e6</v>
+      </c>
+      <c r="J930" s="28">
+        <v>40.93e6</v>
+      </c>
     </row>
     <row r="931" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B931" s="22">
@@ -36585,22 +36765,22 @@
         <v>45</v>
       </c>
       <c r="D931" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E931" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F931" s="26">
         <v>202404</v>
       </c>
       <c r="G931" s="27">
-        <v>-1.90508348e6</v>
+        <v>46.0371028e6</v>
       </c>
       <c r="H931" s="27">
-        <v>38.42325196e6</v>
+        <v>11.59539111e6</v>
       </c>
       <c r="I931" s="27">
-        <v>38.42325196e6</v>
+        <v>11.59539111e6</v>
       </c>
       <c r="J931" s="28"/>
     </row>
@@ -36612,20 +36792,22 @@
         <v>45</v>
       </c>
       <c r="D932" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E932" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F932" s="26">
         <v>202405</v>
       </c>
-      <c r="G932" s="27"/>
+      <c r="G932" s="27">
+        <v>2.32046167e6</v>
+      </c>
       <c r="H932" s="27">
-        <v>37.11827575e6</v>
+        <v>1.62312611e6</v>
       </c>
       <c r="I932" s="27">
-        <v>37.11827575e6</v>
+        <v>1.62312611e6</v>
       </c>
       <c r="J932" s="28"/>
     </row>
@@ -36637,20 +36819,22 @@
         <v>45</v>
       </c>
       <c r="D933" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E933" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F933" s="26">
         <v>202406</v>
       </c>
-      <c r="G933" s="27"/>
+      <c r="G933" s="27">
+        <v>1.80733987e6</v>
+      </c>
       <c r="H933" s="27">
-        <v>37.25538219e6</v>
+        <v>11.61033987e6</v>
       </c>
       <c r="I933" s="27">
-        <v>37.25538219e6</v>
+        <v>11.61033987e6</v>
       </c>
       <c r="J933" s="28"/>
     </row>
@@ -36662,20 +36846,22 @@
         <v>45</v>
       </c>
       <c r="D934" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E934" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F934" s="26">
         <v>202407</v>
       </c>
-      <c r="G934" s="27"/>
+      <c r="G934" s="27">
+        <v>5.07710586e6</v>
+      </c>
       <c r="H934" s="27">
-        <v>38.00379096e6</v>
+        <v>5.07710586e6</v>
       </c>
       <c r="I934" s="27">
-        <v>38.00379096e6</v>
+        <v>5.07710586e6</v>
       </c>
       <c r="J934" s="28"/>
     </row>
@@ -36687,48 +36873,52 @@
         <v>45</v>
       </c>
       <c r="D935" s="24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E935" s="25" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F935" s="26">
-        <v>202401</v>
-      </c>
-      <c r="G935" s="27"/>
-      <c r="H935" s="27"/>
-      <c r="I935" s="27"/>
-      <c r="J935" s="28">
-        <v>1325.38637689e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G935" s="27">
+        <v>2.6760148e6</v>
+      </c>
+      <c r="H935" s="27">
+        <v>12.34113791e6</v>
+      </c>
+      <c r="I935" s="27">
+        <v>12.34113791e6</v>
+      </c>
+      <c r="J935" s="28"/>
     </row>
     <row r="936" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B936" s="22">
         <v>2024</v>
       </c>
       <c r="C936" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D936" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E936" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F936" s="26">
         <v>202401</v>
       </c>
       <c r="G936" s="27">
-        <v>197.84720662e6</v>
+        <v>411.026e6</v>
       </c>
       <c r="H936" s="27">
-        <v>197.84720662e6</v>
+        <v>27.3867129e6</v>
       </c>
       <c r="I936" s="27">
-        <v>189.7093675e6</v>
+        <v>27.3867129e6</v>
       </c>
       <c r="J936" s="28">
-        <v>2343.835e6</v>
+        <v>472.848e6</v>
       </c>
     </row>
     <row r="937" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36736,25 +36926,25 @@
         <v>2024</v>
       </c>
       <c r="C937" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D937" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E937" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F937" s="26">
         <v>202402</v>
       </c>
       <c r="G937" s="27">
-        <v>201.95458013e6</v>
+        <v>3.814e6</v>
       </c>
       <c r="H937" s="27">
-        <v>201.95458013e6</v>
+        <v>36.27227431e6</v>
       </c>
       <c r="I937" s="27">
-        <v>201.09411007e6</v>
+        <v>36.27227431e6</v>
       </c>
       <c r="J937" s="28"/>
     </row>
@@ -36763,25 +36953,25 @@
         <v>2024</v>
       </c>
       <c r="C938" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D938" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E938" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F938" s="26">
         <v>202403</v>
       </c>
       <c r="G938" s="27">
-        <v>174.33583335e6</v>
+        <v>28.934e6</v>
       </c>
       <c r="H938" s="27">
-        <v>174.33583335e6</v>
+        <v>36.5762096e6</v>
       </c>
       <c r="I938" s="27">
-        <v>174.32107851e6</v>
+        <v>36.5762096e6</v>
       </c>
       <c r="J938" s="28"/>
     </row>
@@ -36790,25 +36980,25 @@
         <v>2024</v>
       </c>
       <c r="C939" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D939" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E939" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F939" s="26">
         <v>202404</v>
       </c>
       <c r="G939" s="27">
-        <v>171.61673653e6</v>
+        <v>-1.90508348e6</v>
       </c>
       <c r="H939" s="27">
-        <v>171.41048129e6</v>
+        <v>38.42325196e6</v>
       </c>
       <c r="I939" s="27">
-        <v>170.50572823e6</v>
+        <v>38.42325196e6</v>
       </c>
       <c r="J939" s="28"/>
     </row>
@@ -36817,25 +37007,23 @@
         <v>2024</v>
       </c>
       <c r="C940" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D940" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E940" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F940" s="26">
         <v>202405</v>
       </c>
-      <c r="G940" s="27">
-        <v>178.31878225e6</v>
-      </c>
+      <c r="G940" s="27"/>
       <c r="H940" s="27">
-        <v>178.52503749e6</v>
+        <v>37.11827575e6</v>
       </c>
       <c r="I940" s="27">
-        <v>178.05229431e6</v>
+        <v>37.11827575e6</v>
       </c>
       <c r="J940" s="28"/>
     </row>
@@ -36844,25 +37032,23 @@
         <v>2024</v>
       </c>
       <c r="C941" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D941" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E941" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F941" s="26">
         <v>202406</v>
       </c>
-      <c r="G941" s="27">
-        <v>182.77394462e6</v>
-      </c>
+      <c r="G941" s="27"/>
       <c r="H941" s="27">
-        <v>182.77394462e6</v>
+        <v>37.25538219e6</v>
       </c>
       <c r="I941" s="27">
-        <v>182.29253922e6</v>
+        <v>37.25538219e6</v>
       </c>
       <c r="J941" s="28"/>
     </row>
@@ -36871,25 +37057,23 @@
         <v>2024</v>
       </c>
       <c r="C942" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D942" s="24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E942" s="25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F942" s="26">
         <v>202407</v>
       </c>
-      <c r="G942" s="27">
-        <v>179.76117898e6</v>
-      </c>
+      <c r="G942" s="27"/>
       <c r="H942" s="27">
-        <v>179.76117898e6</v>
+        <v>38.00379096e6</v>
       </c>
       <c r="I942" s="27">
-        <v>40.22644162e6</v>
+        <v>38.00379096e6</v>
       </c>
       <c r="J942" s="28"/>
     </row>
@@ -36898,56 +37082,48 @@
         <v>2024</v>
       </c>
       <c r="C943" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D943" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E943" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F943" s="26">
-        <v>202401</v>
-      </c>
-      <c r="G943" s="27">
-        <v>810.5427037e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G943" s="27"/>
       <c r="H943" s="27">
-        <v>42.36964458e6</v>
+        <v>37.5387489e6</v>
       </c>
       <c r="I943" s="27">
-        <v>42.11398549e6</v>
-      </c>
-      <c r="J943" s="28">
-        <v>894.603e6</v>
-      </c>
+        <v>37.5387489e6</v>
+      </c>
+      <c r="J943" s="28"/>
     </row>
     <row r="944" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B944" s="22">
         <v>2024</v>
       </c>
       <c r="C944" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D944" s="24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E944" s="25" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F944" s="26">
-        <v>202402</v>
-      </c>
-      <c r="G944" s="27">
-        <v>-89.44965258e6</v>
-      </c>
-      <c r="H944" s="27">
-        <v>73.01913865e6</v>
-      </c>
-      <c r="I944" s="27">
-        <v>70.21770209e6</v>
-      </c>
-      <c r="J944" s="28"/>
+        <v>202401</v>
+      </c>
+      <c r="G944" s="27"/>
+      <c r="H944" s="27"/>
+      <c r="I944" s="27"/>
+      <c r="J944" s="28">
+        <v>1324.90137689e6</v>
+      </c>
     </row>
     <row r="945" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B945" s="22">
@@ -36957,25 +37133,25 @@
         <v>46</v>
       </c>
       <c r="D945" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E945" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F945" s="26">
-        <v>202403</v>
+        <v>202401</v>
       </c>
       <c r="G945" s="27">
-        <v>330.37978941e6</v>
+        <v>197.84720662e6</v>
       </c>
       <c r="H945" s="27">
-        <v>90.28062261e6</v>
+        <v>197.84720662e6</v>
       </c>
       <c r="I945" s="27">
-        <v>88.43604218e6</v>
+        <v>189.7093675e6</v>
       </c>
       <c r="J945" s="28">
-        <v>340e6</v>
+        <v>2343.835e6</v>
       </c>
     </row>
     <row r="946" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -36986,26 +37162,24 @@
         <v>46</v>
       </c>
       <c r="D946" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F946" s="26">
-        <v>202404</v>
+        <v>202402</v>
       </c>
       <c r="G946" s="27">
-        <v>43.00901409e6</v>
+        <v>201.95458013e6</v>
       </c>
       <c r="H946" s="27">
-        <v>108.71057534e6</v>
+        <v>201.95458013e6</v>
       </c>
       <c r="I946" s="27">
-        <v>110.24675413e6</v>
-      </c>
-      <c r="J946" s="28">
-        <v>3.41409356e6</v>
-      </c>
+        <v>201.09411007e6</v>
+      </c>
+      <c r="J946" s="28"/>
     </row>
     <row r="947" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B947" s="22">
@@ -37015,22 +37189,22 @@
         <v>46</v>
       </c>
       <c r="D947" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E947" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F947" s="26">
-        <v>202405</v>
+        <v>202403</v>
       </c>
       <c r="G947" s="27">
-        <v>39.81892671e6</v>
+        <v>174.33583335e6</v>
       </c>
       <c r="H947" s="27">
-        <v>99.16159735e6</v>
+        <v>174.33583335e6</v>
       </c>
       <c r="I947" s="27">
-        <v>99.18515587e6</v>
+        <v>174.32107851e6</v>
       </c>
       <c r="J947" s="28"/>
     </row>
@@ -37042,22 +37216,22 @@
         <v>46</v>
       </c>
       <c r="D948" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E948" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F948" s="26">
-        <v>202406</v>
+        <v>202404</v>
       </c>
       <c r="G948" s="27">
-        <v>24.07159945e6</v>
+        <v>171.61673653e6</v>
       </c>
       <c r="H948" s="27">
-        <v>99.86490743e6</v>
+        <v>171.41048129e6</v>
       </c>
       <c r="I948" s="27">
-        <v>99.61538802e6</v>
+        <v>170.50572823e6</v>
       </c>
       <c r="J948" s="28"/>
     </row>
@@ -37069,22 +37243,22 @@
         <v>46</v>
       </c>
       <c r="D949" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E949" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F949" s="26">
-        <v>202407</v>
+        <v>202405</v>
       </c>
       <c r="G949" s="27">
-        <v>31.45085535e6</v>
+        <v>178.31878225e6</v>
       </c>
       <c r="H949" s="27">
-        <v>127.0224318e6</v>
+        <v>178.52503749e6</v>
       </c>
       <c r="I949" s="27">
-        <v>125.68783784e6</v>
+        <v>178.05229431e6</v>
       </c>
       <c r="J949" s="28"/>
     </row>
@@ -37096,22 +37270,24 @@
         <v>46</v>
       </c>
       <c r="D950" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E950" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F950" s="26">
-        <v>202401</v>
+        <v>202406</v>
       </c>
       <c r="G950" s="27">
-        <v>285.06782649e6</v>
-      </c>
-      <c r="H950" s="27"/>
-      <c r="I950" s="27"/>
-      <c r="J950" s="28">
-        <v>599.91e6</v>
-      </c>
+        <v>182.77394462e6</v>
+      </c>
+      <c r="H950" s="27">
+        <v>182.77394462e6</v>
+      </c>
+      <c r="I950" s="27">
+        <v>182.29253922e6</v>
+      </c>
+      <c r="J950" s="28"/>
     </row>
     <row r="951" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B951" s="22">
@@ -37121,22 +37297,22 @@
         <v>46</v>
       </c>
       <c r="D951" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E951" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F951" s="26">
-        <v>202402</v>
+        <v>202407</v>
       </c>
       <c r="G951" s="27">
-        <v>22.5748934e6</v>
+        <v>179.76117898e6</v>
       </c>
       <c r="H951" s="27">
-        <v>5.12073778e6</v>
+        <v>179.76117898e6</v>
       </c>
       <c r="I951" s="27">
-        <v>5.09410157e6</v>
+        <v>179.30869256e6</v>
       </c>
       <c r="J951" s="28"/>
     </row>
@@ -37148,22 +37324,18 @@
         <v>46</v>
       </c>
       <c r="D952" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E952" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F952" s="26">
-        <v>202403</v>
-      </c>
-      <c r="G952" s="27">
-        <v>7.68090859e6</v>
-      </c>
-      <c r="H952" s="27">
-        <v>11.68466101e6</v>
-      </c>
+        <v>202408</v>
+      </c>
+      <c r="G952" s="27"/>
+      <c r="H952" s="27"/>
       <c r="I952" s="27">
-        <v>11.56755696e6</v>
+        <v>7.00172849e6</v>
       </c>
       <c r="J952" s="28"/>
     </row>
@@ -37175,24 +37347,26 @@
         <v>46</v>
       </c>
       <c r="D953" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E953" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F953" s="26">
-        <v>202404</v>
+        <v>202401</v>
       </c>
       <c r="G953" s="27">
-        <v>10.3716934e6</v>
+        <v>810.5427037e6</v>
       </c>
       <c r="H953" s="27">
-        <v>24.60332854e6</v>
+        <v>42.36964458e6</v>
       </c>
       <c r="I953" s="27">
-        <v>24.71476923e6</v>
-      </c>
-      <c r="J953" s="28"/>
+        <v>42.11398549e6</v>
+      </c>
+      <c r="J953" s="28">
+        <v>894.603e6</v>
+      </c>
     </row>
     <row r="954" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B954" s="22">
@@ -37202,22 +37376,22 @@
         <v>46</v>
       </c>
       <c r="D954" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E954" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F954" s="26">
-        <v>202405</v>
+        <v>202402</v>
       </c>
       <c r="G954" s="27">
-        <v>87.37059898e6</v>
+        <v>-89.44965258e6</v>
       </c>
       <c r="H954" s="27">
-        <v>15.12728305e6</v>
+        <v>73.01913865e6</v>
       </c>
       <c r="I954" s="27">
-        <v>15.12687816e6</v>
+        <v>70.21770209e6</v>
       </c>
       <c r="J954" s="28"/>
     </row>
@@ -37229,24 +37403,26 @@
         <v>46</v>
       </c>
       <c r="D955" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E955" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F955" s="26">
-        <v>202406</v>
+        <v>202403</v>
       </c>
       <c r="G955" s="27">
-        <v>5.43103696e6</v>
+        <v>330.37978941e6</v>
       </c>
       <c r="H955" s="27">
-        <v>38.95408698e6</v>
+        <v>90.28062261e6</v>
       </c>
       <c r="I955" s="27">
-        <v>38.33812539e6</v>
-      </c>
-      <c r="J955" s="28"/>
+        <v>88.43604218e6</v>
+      </c>
+      <c r="J955" s="28">
+        <v>340e6</v>
+      </c>
     </row>
     <row r="956" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B956" s="22">
@@ -37256,25 +37432,25 @@
         <v>46</v>
       </c>
       <c r="D956" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E956" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F956" s="26">
-        <v>202407</v>
+        <v>202404</v>
       </c>
       <c r="G956" s="27">
-        <v>84.85949804e6</v>
+        <v>43.00901409e6</v>
       </c>
       <c r="H956" s="27">
-        <v>14.56070921e6</v>
+        <v>108.71057534e6</v>
       </c>
       <c r="I956" s="27">
-        <v>13.15378889e6</v>
+        <v>110.24675413e6</v>
       </c>
       <c r="J956" s="28">
-        <v>1.0852337e6</v>
+        <v>4.43982818e6</v>
       </c>
     </row>
     <row r="957" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37285,22 +37461,24 @@
         <v>46</v>
       </c>
       <c r="D957" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E957" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F957" s="26">
-        <v>202401</v>
+        <v>202405</v>
       </c>
       <c r="G957" s="27">
-        <v>81e6</v>
-      </c>
-      <c r="H957" s="27"/>
-      <c r="I957" s="27"/>
-      <c r="J957" s="28">
-        <v>10000</v>
-      </c>
+        <v>39.81892671e6</v>
+      </c>
+      <c r="H957" s="27">
+        <v>99.16159735e6</v>
+      </c>
+      <c r="I957" s="27">
+        <v>99.18515587e6</v>
+      </c>
+      <c r="J957" s="28"/>
     </row>
     <row r="958" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B958" s="22">
@@ -37310,19 +37488,23 @@
         <v>46</v>
       </c>
       <c r="D958" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E958" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F958" s="26">
         <v>202406</v>
       </c>
       <c r="G958" s="27">
-        <v>-81e6</v>
-      </c>
-      <c r="H958" s="27"/>
-      <c r="I958" s="27"/>
+        <v>24.07159945e6</v>
+      </c>
+      <c r="H958" s="27">
+        <v>99.86490743e6</v>
+      </c>
+      <c r="I958" s="27">
+        <v>99.61538802e6</v>
+      </c>
       <c r="J958" s="28"/>
     </row>
     <row r="959" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37330,139 +37512,131 @@
         <v>2024</v>
       </c>
       <c r="C959" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D959" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E959" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F959" s="26">
-        <v>202401</v>
+        <v>202407</v>
       </c>
       <c r="G959" s="27">
-        <v>292.90506427e6</v>
+        <v>31.89247452e6</v>
       </c>
       <c r="H959" s="27">
-        <v>90.75658556e6</v>
+        <v>127.92254799e6</v>
       </c>
       <c r="I959" s="27">
-        <v>88.84334225e6</v>
-      </c>
-      <c r="J959" s="28">
-        <v>1113.8e6</v>
-      </c>
+        <v>128.13197667e6</v>
+      </c>
+      <c r="J959" s="28"/>
     </row>
     <row r="960" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B960" s="22">
         <v>2024</v>
       </c>
       <c r="C960" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D960" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E960" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F960" s="26">
-        <v>202402</v>
+        <v>202408</v>
       </c>
       <c r="G960" s="27">
-        <v>59.60726225e6</v>
+        <v>7.63418889e6</v>
       </c>
       <c r="H960" s="27">
-        <v>82.13146632e6</v>
+        <v>44.69428331e6</v>
       </c>
       <c r="I960" s="27">
-        <v>81.79021645e6</v>
-      </c>
-      <c r="J960" s="28">
-        <v>24e6</v>
-      </c>
+        <v>44.30014505e6</v>
+      </c>
+      <c r="J960" s="28"/>
     </row>
     <row r="961" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B961" s="22">
         <v>2024</v>
       </c>
       <c r="C961" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D961" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E961" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F961" s="26">
-        <v>202403</v>
+        <v>202401</v>
       </c>
       <c r="G961" s="27">
-        <v>60.87267146e6</v>
-      </c>
-      <c r="H961" s="27">
-        <v>83.10344843e6</v>
-      </c>
-      <c r="I961" s="27">
-        <v>83.40551553e6</v>
-      </c>
-      <c r="J961" s="28"/>
+        <v>285.06782649e6</v>
+      </c>
+      <c r="H961" s="27"/>
+      <c r="I961" s="27"/>
+      <c r="J961" s="28">
+        <v>599.91e6</v>
+      </c>
     </row>
     <row r="962" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B962" s="22">
         <v>2024</v>
       </c>
       <c r="C962" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D962" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E962" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F962" s="26">
-        <v>202404</v>
+        <v>202402</v>
       </c>
       <c r="G962" s="27">
-        <v>63.13760683e6</v>
+        <v>22.5748934e6</v>
       </c>
       <c r="H962" s="27">
-        <v>79.38712078e6</v>
+        <v>5.12073778e6</v>
       </c>
       <c r="I962" s="27">
-        <v>79.03050155e6</v>
-      </c>
-      <c r="J962" s="28">
-        <v>4.88942024e6</v>
-      </c>
+        <v>5.09410157e6</v>
+      </c>
+      <c r="J962" s="28"/>
     </row>
     <row r="963" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B963" s="22">
         <v>2024</v>
       </c>
       <c r="C963" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D963" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E963" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F963" s="26">
-        <v>202405</v>
+        <v>202403</v>
       </c>
       <c r="G963" s="27">
-        <v>63.67110354e6</v>
+        <v>7.68090859e6</v>
       </c>
       <c r="H963" s="27">
-        <v>81.42637802e6</v>
+        <v>11.68466101e6</v>
       </c>
       <c r="I963" s="27">
-        <v>80.82055537e6</v>
+        <v>11.56755696e6</v>
       </c>
       <c r="J963" s="28"/>
     </row>
@@ -37471,25 +37645,25 @@
         <v>2024</v>
       </c>
       <c r="C964" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D964" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E964" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F964" s="26">
-        <v>202406</v>
+        <v>202404</v>
       </c>
       <c r="G964" s="27">
-        <v>79.36168649e6</v>
+        <v>10.3716934e6</v>
       </c>
       <c r="H964" s="27">
-        <v>97.02972442e6</v>
+        <v>24.60332854e6</v>
       </c>
       <c r="I964" s="27">
-        <v>96.94229335e6</v>
+        <v>24.71476923e6</v>
       </c>
       <c r="J964" s="28"/>
     </row>
@@ -37498,25 +37672,25 @@
         <v>2024</v>
       </c>
       <c r="C965" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D965" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E965" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F965" s="26">
-        <v>202407</v>
+        <v>202405</v>
       </c>
       <c r="G965" s="27">
-        <v>64.64701081e6</v>
+        <v>87.37059898e6</v>
       </c>
       <c r="H965" s="27">
-        <v>81.01300779e6</v>
+        <v>15.12728305e6</v>
       </c>
       <c r="I965" s="27">
-        <v>8.52958696e6</v>
+        <v>15.12687816e6</v>
       </c>
       <c r="J965" s="28"/>
     </row>
@@ -37525,57 +37699,55 @@
         <v>2024</v>
       </c>
       <c r="C966" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D966" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E966" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F966" s="26">
-        <v>202401</v>
+        <v>202406</v>
       </c>
       <c r="G966" s="27">
-        <v>87.86958591e6</v>
+        <v>5.43103696e6</v>
       </c>
       <c r="H966" s="27">
-        <v>9.60876718e6</v>
+        <v>38.95408698e6</v>
       </c>
       <c r="I966" s="27">
-        <v>9.54797949e6</v>
-      </c>
-      <c r="J966" s="28">
-        <v>294.599e6</v>
-      </c>
+        <v>38.33812539e6</v>
+      </c>
+      <c r="J966" s="28"/>
     </row>
     <row r="967" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B967" s="22">
         <v>2024</v>
       </c>
       <c r="C967" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D967" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E967" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F967" s="26">
-        <v>202402</v>
+        <v>202407</v>
       </c>
       <c r="G967" s="27">
-        <v>3.46779642e6</v>
+        <v>84.85949804e6</v>
       </c>
       <c r="H967" s="27">
-        <v>13.43880476e6</v>
+        <v>14.99444023e6</v>
       </c>
       <c r="I967" s="27">
-        <v>13.38955811e6</v>
+        <v>15.07195817e6</v>
       </c>
       <c r="J967" s="28">
-        <v>837064.98</v>
+        <v>1.0852337e6</v>
       </c>
     </row>
     <row r="968" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37583,25 +37755,25 @@
         <v>2024</v>
       </c>
       <c r="C968" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D968" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E968" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F968" s="26">
-        <v>202403</v>
+        <v>202408</v>
       </c>
       <c r="G968" s="27">
-        <v>9.85733684e6</v>
+        <v>22.40443284e6</v>
       </c>
       <c r="H968" s="27">
-        <v>16.40682544e6</v>
+        <v>18.27714932e6</v>
       </c>
       <c r="I968" s="27">
-        <v>16.31271281e6</v>
+        <v>13.55681317e6</v>
       </c>
       <c r="J968" s="28"/>
     </row>
@@ -37610,53 +37782,47 @@
         <v>2024</v>
       </c>
       <c r="C969" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D969" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E969" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F969" s="26">
-        <v>202404</v>
+        <v>202401</v>
       </c>
       <c r="G969" s="27">
-        <v>12.8700245e6</v>
-      </c>
-      <c r="H969" s="27">
-        <v>15.55079754e6</v>
-      </c>
-      <c r="I969" s="27">
-        <v>15.47984394e6</v>
-      </c>
-      <c r="J969" s="28"/>
+        <v>81e6</v>
+      </c>
+      <c r="H969" s="27"/>
+      <c r="I969" s="27"/>
+      <c r="J969" s="28">
+        <v>10000</v>
+      </c>
     </row>
     <row r="970" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B970" s="22">
         <v>2024</v>
       </c>
       <c r="C970" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D970" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E970" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F970" s="26">
-        <v>202405</v>
+        <v>202406</v>
       </c>
       <c r="G970" s="27">
-        <v>23.41640948e6</v>
-      </c>
-      <c r="H970" s="27">
-        <v>14.98372784e6</v>
-      </c>
-      <c r="I970" s="27">
-        <v>15.21459617e6</v>
-      </c>
+        <v>-81e6</v>
+      </c>
+      <c r="H970" s="27"/>
+      <c r="I970" s="27"/>
       <c r="J970" s="28"/>
     </row>
     <row r="971" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37667,24 +37833,26 @@
         <v>47</v>
       </c>
       <c r="D971" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E971" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F971" s="26">
-        <v>202406</v>
+        <v>202401</v>
       </c>
       <c r="G971" s="27">
-        <v>11.26672104e6</v>
+        <v>292.90506427e6</v>
       </c>
       <c r="H971" s="27">
-        <v>17.09428159e6</v>
+        <v>90.75658556e6</v>
       </c>
       <c r="I971" s="27">
-        <v>16.92799433e6</v>
-      </c>
-      <c r="J971" s="28"/>
+        <v>88.84334225e6</v>
+      </c>
+      <c r="J971" s="28">
+        <v>1113.8e6</v>
+      </c>
     </row>
     <row r="972" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B972" s="22">
@@ -37694,24 +37862,26 @@
         <v>47</v>
       </c>
       <c r="D972" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E972" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F972" s="26">
-        <v>202407</v>
+        <v>202402</v>
       </c>
       <c r="G972" s="27">
-        <v>9.31058513e6</v>
+        <v>59.60726225e6</v>
       </c>
       <c r="H972" s="27">
-        <v>16.08972011e6</v>
+        <v>82.13146632e6</v>
       </c>
       <c r="I972" s="27">
-        <v>6.29093174e6</v>
-      </c>
-      <c r="J972" s="28"/>
+        <v>81.79021645e6</v>
+      </c>
+      <c r="J972" s="28">
+        <v>24e6</v>
+      </c>
     </row>
     <row r="973" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B973" s="22">
@@ -37721,26 +37891,24 @@
         <v>47</v>
       </c>
       <c r="D973" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E973" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F973" s="26">
-        <v>202401</v>
+        <v>202403</v>
       </c>
       <c r="G973" s="27">
-        <v>7.09571473e6</v>
+        <v>60.87267146e6</v>
       </c>
       <c r="H973" s="27">
-        <v>144722.77</v>
+        <v>83.10344843e6</v>
       </c>
       <c r="I973" s="27">
-        <v>144722.77</v>
-      </c>
-      <c r="J973" s="28">
-        <v>125.482e6</v>
-      </c>
+        <v>83.40551553e6</v>
+      </c>
+      <c r="J973" s="28"/>
     </row>
     <row r="974" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B974" s="22">
@@ -37750,25 +37918,25 @@
         <v>47</v>
       </c>
       <c r="D974" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E974" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F974" s="26">
-        <v>202402</v>
+        <v>202404</v>
       </c>
       <c r="G974" s="27">
-        <v>6.06047127e6</v>
+        <v>63.13760683e6</v>
       </c>
       <c r="H974" s="27">
-        <v>315465.38</v>
+        <v>79.38712078e6</v>
       </c>
       <c r="I974" s="27">
-        <v>315465.38</v>
+        <v>79.03050155e6</v>
       </c>
       <c r="J974" s="28">
-        <v>15.92899669e6</v>
+        <v>4.88942024e6</v>
       </c>
     </row>
     <row r="975" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37779,22 +37947,22 @@
         <v>47</v>
       </c>
       <c r="D975" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E975" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F975" s="26">
-        <v>202403</v>
+        <v>202405</v>
       </c>
       <c r="G975" s="27">
-        <v>3.29371957e6</v>
+        <v>63.67110354e6</v>
       </c>
       <c r="H975" s="27">
-        <v>840564.26</v>
+        <v>81.42637802e6</v>
       </c>
       <c r="I975" s="27">
-        <v>840564.26</v>
+        <v>80.82055537e6</v>
       </c>
       <c r="J975" s="28"/>
     </row>
@@ -37806,20 +37974,22 @@
         <v>47</v>
       </c>
       <c r="D976" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E976" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F976" s="26">
-        <v>202404</v>
-      </c>
-      <c r="G976" s="27"/>
+        <v>202406</v>
+      </c>
+      <c r="G976" s="27">
+        <v>79.36168649e6</v>
+      </c>
       <c r="H976" s="27">
-        <v>1.23816172e6</v>
+        <v>97.02972442e6</v>
       </c>
       <c r="I976" s="27">
-        <v>1.23816172e6</v>
+        <v>96.94229335e6</v>
       </c>
       <c r="J976" s="28"/>
     </row>
@@ -37831,22 +38001,22 @@
         <v>47</v>
       </c>
       <c r="D977" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E977" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F977" s="26">
-        <v>202405</v>
+        <v>202407</v>
       </c>
       <c r="G977" s="27">
-        <v>253699.99</v>
+        <v>64.64701081e6</v>
       </c>
       <c r="H977" s="27">
-        <v>1.06809637e6</v>
+        <v>81.01813118e6</v>
       </c>
       <c r="I977" s="27">
-        <v>1.06809637e6</v>
+        <v>81.65658273e6</v>
       </c>
       <c r="J977" s="28"/>
     </row>
@@ -37858,22 +38028,22 @@
         <v>47</v>
       </c>
       <c r="D978" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E978" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F978" s="26">
-        <v>202406</v>
+        <v>202408</v>
       </c>
       <c r="G978" s="27">
-        <v>1.31860002e6</v>
+        <v>48.34123045e6</v>
       </c>
       <c r="H978" s="27">
-        <v>1.61970335e6</v>
+        <v>48.46601201e6</v>
       </c>
       <c r="I978" s="27">
-        <v>1.61970335e6</v>
+        <v>2.44975925e6</v>
       </c>
       <c r="J978" s="28"/>
     </row>
@@ -37885,25 +38055,25 @@
         <v>47</v>
       </c>
       <c r="D979" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E979" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F979" s="26">
-        <v>202407</v>
+        <v>202401</v>
       </c>
       <c r="G979" s="27">
-        <v>5.5357134e6</v>
+        <v>87.86958591e6</v>
       </c>
       <c r="H979" s="27">
-        <v>1.07403247e6</v>
+        <v>9.60876718e6</v>
       </c>
       <c r="I979" s="27">
-        <v>946877.48</v>
+        <v>9.54797949e6</v>
       </c>
       <c r="J979" s="28">
-        <v>5.5e6</v>
+        <v>294.599e6</v>
       </c>
     </row>
     <row r="980" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37914,19 +38084,25 @@
         <v>47</v>
       </c>
       <c r="D980" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E980" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F980" s="26">
-        <v>202401</v>
-      </c>
-      <c r="G980" s="27"/>
-      <c r="H980" s="27"/>
-      <c r="I980" s="27"/>
+        <v>202402</v>
+      </c>
+      <c r="G980" s="27">
+        <v>3.46779642e6</v>
+      </c>
+      <c r="H980" s="27">
+        <v>13.43880476e6</v>
+      </c>
+      <c r="I980" s="27">
+        <v>13.38955811e6</v>
+      </c>
       <c r="J980" s="28">
-        <v>20000</v>
+        <v>837064.98</v>
       </c>
     </row>
     <row r="981" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -37937,74 +38113,76 @@
         <v>47</v>
       </c>
       <c r="D981" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E981" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F981" s="26">
-        <v>202405</v>
-      </c>
-      <c r="G981" s="27"/>
-      <c r="H981" s="27"/>
-      <c r="I981" s="27"/>
-      <c r="J981" s="28">
-        <v>1.8e6</v>
-      </c>
+        <v>202403</v>
+      </c>
+      <c r="G981" s="27">
+        <v>9.85733684e6</v>
+      </c>
+      <c r="H981" s="27">
+        <v>16.40682544e6</v>
+      </c>
+      <c r="I981" s="27">
+        <v>16.31271281e6</v>
+      </c>
+      <c r="J981" s="28"/>
     </row>
     <row r="982" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B982" s="22">
         <v>2024</v>
       </c>
       <c r="C982" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D982" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E982" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F982" s="26">
-        <v>202401</v>
+        <v>202404</v>
       </c>
       <c r="G982" s="27">
-        <v>61.36444441e6</v>
+        <v>12.8700245e6</v>
       </c>
       <c r="H982" s="27">
-        <v>61.22491336e6</v>
+        <v>15.55079754e6</v>
       </c>
       <c r="I982" s="27">
-        <v>58.47988324e6</v>
-      </c>
-      <c r="J982" s="28">
-        <v>770.71e6</v>
-      </c>
+        <v>15.47984394e6</v>
+      </c>
+      <c r="J982" s="28"/>
     </row>
     <row r="983" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B983" s="22">
         <v>2024</v>
       </c>
       <c r="C983" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D983" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E983" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F983" s="26">
-        <v>202402</v>
+        <v>202405</v>
       </c>
       <c r="G983" s="27">
-        <v>62.74857405e6</v>
+        <v>23.41640948e6</v>
       </c>
       <c r="H983" s="27">
-        <v>62.76119365e6</v>
+        <v>14.98372784e6</v>
       </c>
       <c r="I983" s="27">
-        <v>65.50622377e6</v>
+        <v>15.21459617e6</v>
       </c>
       <c r="J983" s="28"/>
     </row>
@@ -38013,25 +38191,25 @@
         <v>2024</v>
       </c>
       <c r="C984" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D984" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E984" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F984" s="26">
-        <v>202403</v>
+        <v>202406</v>
       </c>
       <c r="G984" s="27">
-        <v>63.50706242e6</v>
+        <v>11.26672104e6</v>
       </c>
       <c r="H984" s="27">
-        <v>63.51968202e6</v>
+        <v>17.09428159e6</v>
       </c>
       <c r="I984" s="27">
-        <v>63.51612668e6</v>
+        <v>16.92799433e6</v>
       </c>
       <c r="J984" s="28"/>
     </row>
@@ -38040,25 +38218,25 @@
         <v>2024</v>
       </c>
       <c r="C985" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D985" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E985" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F985" s="26">
-        <v>202404</v>
+        <v>202407</v>
       </c>
       <c r="G985" s="27">
-        <v>63.6253048e6</v>
+        <v>9.38977478e6</v>
       </c>
       <c r="H985" s="27">
-        <v>63.62028446e6</v>
+        <v>16.35841157e6</v>
       </c>
       <c r="I985" s="27">
-        <v>63.61428285e6</v>
+        <v>16.35907273e6</v>
       </c>
       <c r="J985" s="28"/>
     </row>
@@ -38067,25 +38245,25 @@
         <v>2024</v>
       </c>
       <c r="C986" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D986" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E986" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F986" s="26">
-        <v>202405</v>
+        <v>202408</v>
       </c>
       <c r="G986" s="27">
-        <v>67.05805931e6</v>
+        <v>9.00979063e6</v>
       </c>
       <c r="H986" s="27">
-        <v>67.08831885e6</v>
+        <v>12.12887302e6</v>
       </c>
       <c r="I986" s="27">
-        <v>67.09747338e6</v>
+        <v>4.77291157e6</v>
       </c>
       <c r="J986" s="28"/>
     </row>
@@ -38094,108 +38272,108 @@
         <v>2024</v>
       </c>
       <c r="C987" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D987" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E987" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F987" s="26">
-        <v>202406</v>
+        <v>202401</v>
       </c>
       <c r="G987" s="27">
-        <v>77.93094674e6</v>
+        <v>7.09571473e6</v>
       </c>
       <c r="H987" s="27">
-        <v>77.76049632e6</v>
+        <v>144722.77</v>
       </c>
       <c r="I987" s="27">
-        <v>77.75986778e6</v>
-      </c>
-      <c r="J987" s="28"/>
+        <v>144722.77</v>
+      </c>
+      <c r="J987" s="28">
+        <v>125.482e6</v>
+      </c>
     </row>
     <row r="988" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B988" s="22">
         <v>2024</v>
       </c>
       <c r="C988" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D988" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E988" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F988" s="26">
-        <v>202407</v>
+        <v>202402</v>
       </c>
       <c r="G988" s="27">
-        <v>93.48035694e6</v>
+        <v>6.06047127e6</v>
       </c>
       <c r="H988" s="27">
-        <v>93.56184609e6</v>
+        <v>315465.38</v>
       </c>
       <c r="I988" s="27">
-        <v>24.18148752e6</v>
-      </c>
-      <c r="J988" s="28"/>
+        <v>315465.38</v>
+      </c>
+      <c r="J988" s="28">
+        <v>15.92899669e6</v>
+      </c>
     </row>
     <row r="989" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B989" s="22">
         <v>2024</v>
       </c>
       <c r="C989" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D989" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E989" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F989" s="26">
-        <v>202401</v>
+        <v>202403</v>
       </c>
       <c r="G989" s="27">
-        <v>39.11794049e6</v>
+        <v>3.29371957e6</v>
       </c>
       <c r="H989" s="27">
-        <v>7.77994776e6</v>
+        <v>840564.26</v>
       </c>
       <c r="I989" s="27">
-        <v>6.89293439e6</v>
-      </c>
-      <c r="J989" s="28">
-        <v>353.80889903e6</v>
-      </c>
+        <v>840564.26</v>
+      </c>
+      <c r="J989" s="28"/>
     </row>
     <row r="990" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B990" s="22">
         <v>2024</v>
       </c>
       <c r="C990" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D990" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E990" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F990" s="26">
-        <v>202402</v>
-      </c>
-      <c r="G990" s="27">
-        <v>80.67544379e6</v>
-      </c>
+        <v>202404</v>
+      </c>
+      <c r="G990" s="27"/>
       <c r="H990" s="27">
-        <v>11.11577495e6</v>
+        <v>1.23816172e6</v>
       </c>
       <c r="I990" s="27">
-        <v>10.53226593e6</v>
+        <v>1.23816172e6</v>
       </c>
       <c r="J990" s="28"/>
     </row>
@@ -38204,25 +38382,25 @@
         <v>2024</v>
       </c>
       <c r="C991" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D991" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E991" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F991" s="26">
-        <v>202403</v>
+        <v>202405</v>
       </c>
       <c r="G991" s="27">
-        <v>8.12891337e6</v>
+        <v>253699.99</v>
       </c>
       <c r="H991" s="27">
-        <v>20.10241352e6</v>
+        <v>1.06809637e6</v>
       </c>
       <c r="I991" s="27">
-        <v>15.88305366e6</v>
+        <v>1.06809637e6</v>
       </c>
       <c r="J991" s="28"/>
     </row>
@@ -38231,25 +38409,25 @@
         <v>2024</v>
       </c>
       <c r="C992" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D992" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E992" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F992" s="26">
-        <v>202404</v>
+        <v>202406</v>
       </c>
       <c r="G992" s="27">
-        <v>17.58550588e6</v>
+        <v>1.31860002e6</v>
       </c>
       <c r="H992" s="27">
-        <v>17.13689737e6</v>
+        <v>1.61970335e6</v>
       </c>
       <c r="I992" s="27">
-        <v>17.51390234e6</v>
+        <v>1.61970335e6</v>
       </c>
       <c r="J992" s="28"/>
     </row>
@@ -38258,52 +38436,54 @@
         <v>2024</v>
       </c>
       <c r="C993" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D993" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E993" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F993" s="26">
-        <v>202405</v>
+        <v>202407</v>
       </c>
       <c r="G993" s="27">
-        <v>17.98419111e6</v>
+        <v>5.5357134e6</v>
       </c>
       <c r="H993" s="27">
-        <v>14.17352792e6</v>
+        <v>1.07403247e6</v>
       </c>
       <c r="I993" s="27">
-        <v>15.58776299e6</v>
-      </c>
-      <c r="J993" s="28"/>
+        <v>1.07403247e6</v>
+      </c>
+      <c r="J993" s="28">
+        <v>5.5e6</v>
+      </c>
     </row>
     <row r="994" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B994" s="22">
         <v>2024</v>
       </c>
       <c r="C994" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D994" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E994" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F994" s="26">
-        <v>202406</v>
+        <v>202408</v>
       </c>
       <c r="G994" s="27">
-        <v>9.44548554e6</v>
+        <v>738596.03</v>
       </c>
       <c r="H994" s="27">
-        <v>16.7157466e6</v>
+        <v>362438.1</v>
       </c>
       <c r="I994" s="27">
-        <v>16.75320357e6</v>
+        <v>362438.1</v>
       </c>
       <c r="J994" s="28"/>
     </row>
@@ -38312,53 +38492,45 @@
         <v>2024</v>
       </c>
       <c r="C995" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D995" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E995" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F995" s="26">
-        <v>202407</v>
-      </c>
-      <c r="G995" s="27">
-        <v>15.020883e6</v>
-      </c>
-      <c r="H995" s="27">
-        <v>18.95754871e6</v>
-      </c>
-      <c r="I995" s="27">
-        <v>12.02492758e6</v>
-      </c>
-      <c r="J995" s="28"/>
+        <v>202401</v>
+      </c>
+      <c r="G995" s="27"/>
+      <c r="H995" s="27"/>
+      <c r="I995" s="27"/>
+      <c r="J995" s="28">
+        <v>20000</v>
+      </c>
     </row>
     <row r="996" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B996" s="22">
         <v>2024</v>
       </c>
       <c r="C996" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D996" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E996" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F996" s="26">
-        <v>202401</v>
-      </c>
-      <c r="G996" s="27">
-        <v>22.75831767e6</v>
-      </c>
-      <c r="H996" s="27">
-        <v>22785</v>
-      </c>
+        <v>202405</v>
+      </c>
+      <c r="G996" s="27"/>
+      <c r="H996" s="27"/>
       <c r="I996" s="27"/>
       <c r="J996" s="28">
-        <v>99.479e6</v>
+        <v>1.8e6</v>
       </c>
     </row>
     <row r="997" s="1" customFormat="1" ht="19.1988" customHeight="1">
@@ -38369,24 +38541,26 @@
         <v>48</v>
       </c>
       <c r="D997" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E997" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F997" s="26">
-        <v>202402</v>
+        <v>202401</v>
       </c>
       <c r="G997" s="27">
-        <v>2.5098997e6</v>
+        <v>61.36444441e6</v>
       </c>
       <c r="H997" s="27">
-        <v>14926.25</v>
+        <v>61.22491336e6</v>
       </c>
       <c r="I997" s="27">
-        <v>26511.25</v>
-      </c>
-      <c r="J997" s="28"/>
+        <v>58.47988324e6</v>
+      </c>
+      <c r="J997" s="28">
+        <v>770.71e6</v>
+      </c>
     </row>
     <row r="998" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B998" s="22">
@@ -38396,22 +38570,22 @@
         <v>48</v>
       </c>
       <c r="D998" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E998" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F998" s="26">
-        <v>202403</v>
+        <v>202402</v>
       </c>
       <c r="G998" s="27">
-        <v>2.50530693e6</v>
+        <v>62.74857405e6</v>
       </c>
       <c r="H998" s="27">
-        <v>1.26864599e6</v>
+        <v>62.76119365e6</v>
       </c>
       <c r="I998" s="27">
-        <v>34785</v>
+        <v>65.50622377e6</v>
       </c>
       <c r="J998" s="28"/>
     </row>
@@ -38423,26 +38597,24 @@
         <v>48</v>
       </c>
       <c r="D999" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E999" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F999" s="26">
-        <v>202404</v>
+        <v>202403</v>
       </c>
       <c r="G999" s="27">
-        <v>17.8519723e6</v>
+        <v>63.50706242e6</v>
       </c>
       <c r="H999" s="27">
-        <v>3.65770422e6</v>
+        <v>63.51968202e6</v>
       </c>
       <c r="I999" s="27">
-        <v>4.89652521e6</v>
-      </c>
-      <c r="J999" s="28">
-        <v>20e6</v>
-      </c>
+        <v>63.51612668e6</v>
+      </c>
+      <c r="J999" s="28"/>
     </row>
     <row r="1000" s="1" customFormat="1" ht="19.1988" customHeight="1">
       <c r="B1000" s="22">
@@ -38452,22 +38624,22 @@
         <v>48</v>
       </c>
       <c r="D1000" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1000" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1000" s="26">
-        <v>202405</v>
+        <v>202404</v>
       </c>
       <c r="G1000" s="27">
-        <v>216386.22</v>
+        <v>63.6253048e6</v>
       </c>
       <c r="H1000" s="27">
-        <v>1.55406258e6</v>
+        <v>63.62028446e6</v>
       </c>
       <c r="I1000" s="27">
-        <v>1.55349758e6</v>
+        <v>63.61428285e6</v>
       </c>
       <c r="J1000" s="28"/>
     </row>
@@ -38479,22 +38651,22 @@
         <v>48</v>
       </c>
       <c r="D1001" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1001" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1001" s="26">
-        <v>202406</v>
+        <v>202405</v>
       </c>
       <c r="G1001" s="27">
-        <v>1.54102284e6</v>
+        <v>67.05805931e6</v>
       </c>
       <c r="H1001" s="27">
-        <v>5.60340451e6</v>
+        <v>67.08831885e6</v>
       </c>
       <c r="I1001" s="27">
-        <v>3.57995061e6</v>
+        <v>67.09747338e6</v>
       </c>
       <c r="J1001" s="28"/>
     </row>
@@ -38506,22 +38678,22 @@
         <v>48</v>
       </c>
       <c r="D1002" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1002" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1002" s="26">
-        <v>202407</v>
+        <v>202406</v>
       </c>
       <c r="G1002" s="27">
-        <v>6.6684311e6</v>
+        <v>77.93094674e6</v>
       </c>
       <c r="H1002" s="27">
-        <v>4.08123173e6</v>
+        <v>77.76049632e6</v>
       </c>
       <c r="I1002" s="27">
-        <v>5.99399063e6</v>
+        <v>77.75986778e6</v>
       </c>
       <c r="J1002" s="28"/>
     </row>
@@ -38533,43 +38705,535 @@
         <v>48</v>
       </c>
       <c r="D1003" s="24">
+        <v>1</v>
+      </c>
+      <c r="E1003" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1003" s="26">
+        <v>202407</v>
+      </c>
+      <c r="G1003" s="27">
+        <v>93.48035694e6</v>
+      </c>
+      <c r="H1003" s="27">
+        <v>93.56184609e6</v>
+      </c>
+      <c r="I1003" s="27">
+        <v>93.44193969e6</v>
+      </c>
+      <c r="J1003" s="28"/>
+    </row>
+    <row r="1004" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1004" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1004" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1004" s="24">
+        <v>1</v>
+      </c>
+      <c r="E1004" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1004" s="26">
+        <v>202408</v>
+      </c>
+      <c r="G1004" s="27">
+        <v>-200040.44</v>
+      </c>
+      <c r="H1004" s="27">
+        <v>-168648.79</v>
+      </c>
+      <c r="I1004" s="27">
+        <v>-49410.87</v>
+      </c>
+      <c r="J1004" s="28">
+        <v>40e6</v>
+      </c>
+    </row>
+    <row r="1005" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1005" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1005" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1005" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1005" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1005" s="26">
+        <v>202401</v>
+      </c>
+      <c r="G1005" s="27">
+        <v>39.11794049e6</v>
+      </c>
+      <c r="H1005" s="27">
+        <v>7.77994776e6</v>
+      </c>
+      <c r="I1005" s="27">
+        <v>6.89293439e6</v>
+      </c>
+      <c r="J1005" s="28">
+        <v>353.80889903e6</v>
+      </c>
+    </row>
+    <row r="1006" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1006" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1006" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1006" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1006" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1006" s="26">
+        <v>202402</v>
+      </c>
+      <c r="G1006" s="27">
+        <v>80.67544379e6</v>
+      </c>
+      <c r="H1006" s="27">
+        <v>11.11577495e6</v>
+      </c>
+      <c r="I1006" s="27">
+        <v>10.53226593e6</v>
+      </c>
+      <c r="J1006" s="28"/>
+    </row>
+    <row r="1007" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1007" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1007" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1007" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1007" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1007" s="26">
+        <v>202403</v>
+      </c>
+      <c r="G1007" s="27">
+        <v>8.12891337e6</v>
+      </c>
+      <c r="H1007" s="27">
+        <v>20.10241352e6</v>
+      </c>
+      <c r="I1007" s="27">
+        <v>15.88305366e6</v>
+      </c>
+      <c r="J1007" s="28"/>
+    </row>
+    <row r="1008" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1008" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1008" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1008" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1008" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1008" s="26">
+        <v>202404</v>
+      </c>
+      <c r="G1008" s="27">
+        <v>17.58550588e6</v>
+      </c>
+      <c r="H1008" s="27">
+        <v>17.13689737e6</v>
+      </c>
+      <c r="I1008" s="27">
+        <v>17.51390234e6</v>
+      </c>
+      <c r="J1008" s="28"/>
+    </row>
+    <row r="1009" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1009" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1009" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1009" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1009" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1009" s="26">
+        <v>202405</v>
+      </c>
+      <c r="G1009" s="27">
+        <v>17.98419111e6</v>
+      </c>
+      <c r="H1009" s="27">
+        <v>14.17352792e6</v>
+      </c>
+      <c r="I1009" s="27">
+        <v>15.58776299e6</v>
+      </c>
+      <c r="J1009" s="28"/>
+    </row>
+    <row r="1010" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1010" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1010" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1010" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1010" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1010" s="26">
+        <v>202406</v>
+      </c>
+      <c r="G1010" s="27">
+        <v>9.44548554e6</v>
+      </c>
+      <c r="H1010" s="27">
+        <v>16.7157466e6</v>
+      </c>
+      <c r="I1010" s="27">
+        <v>16.75320357e6</v>
+      </c>
+      <c r="J1010" s="28"/>
+    </row>
+    <row r="1011" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1011" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1011" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1011" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1011" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1011" s="26">
+        <v>202407</v>
+      </c>
+      <c r="G1011" s="27">
+        <v>15.0611154e6</v>
+      </c>
+      <c r="H1011" s="27">
+        <v>19.18509095e6</v>
+      </c>
+      <c r="I1011" s="27">
+        <v>19.61333619e6</v>
+      </c>
+      <c r="J1011" s="28"/>
+    </row>
+    <row r="1012" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1012" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1012" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1012" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1012" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1012" s="26">
+        <v>202408</v>
+      </c>
+      <c r="G1012" s="27">
+        <v>5.08052711e6</v>
+      </c>
+      <c r="H1012" s="27">
+        <v>4.60330358e6</v>
+      </c>
+      <c r="I1012" s="27">
+        <v>4.93412971e6</v>
+      </c>
+      <c r="J1012" s="28"/>
+    </row>
+    <row r="1013" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1013" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1013" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1013" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1013" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1013" s="26">
+        <v>202401</v>
+      </c>
+      <c r="G1013" s="27">
+        <v>22.75831767e6</v>
+      </c>
+      <c r="H1013" s="27">
+        <v>22785</v>
+      </c>
+      <c r="I1013" s="27"/>
+      <c r="J1013" s="28">
+        <v>99.479e6</v>
+      </c>
+    </row>
+    <row r="1014" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1014" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1014" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1014" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1014" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1014" s="26">
+        <v>202402</v>
+      </c>
+      <c r="G1014" s="27">
+        <v>2.5098997e6</v>
+      </c>
+      <c r="H1014" s="27">
+        <v>14926.25</v>
+      </c>
+      <c r="I1014" s="27">
+        <v>26511.25</v>
+      </c>
+      <c r="J1014" s="28"/>
+    </row>
+    <row r="1015" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1015" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1015" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1015" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1015" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1015" s="26">
+        <v>202403</v>
+      </c>
+      <c r="G1015" s="27">
+        <v>2.50530693e6</v>
+      </c>
+      <c r="H1015" s="27">
+        <v>1.26864599e6</v>
+      </c>
+      <c r="I1015" s="27">
+        <v>34785</v>
+      </c>
+      <c r="J1015" s="28"/>
+    </row>
+    <row r="1016" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1016" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1016" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1016" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1016" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1016" s="26">
+        <v>202404</v>
+      </c>
+      <c r="G1016" s="27">
+        <v>17.8519723e6</v>
+      </c>
+      <c r="H1016" s="27">
+        <v>3.65770422e6</v>
+      </c>
+      <c r="I1016" s="27">
+        <v>4.89652521e6</v>
+      </c>
+      <c r="J1016" s="28">
+        <v>20e6</v>
+      </c>
+    </row>
+    <row r="1017" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1017" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1017" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1017" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1017" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1017" s="26">
+        <v>202405</v>
+      </c>
+      <c r="G1017" s="27">
+        <v>216386.22</v>
+      </c>
+      <c r="H1017" s="27">
+        <v>1.55406258e6</v>
+      </c>
+      <c r="I1017" s="27">
+        <v>1.55349758e6</v>
+      </c>
+      <c r="J1017" s="28"/>
+    </row>
+    <row r="1018" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1018" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1018" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1018" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1018" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1018" s="26">
+        <v>202406</v>
+      </c>
+      <c r="G1018" s="27">
+        <v>1.54102284e6</v>
+      </c>
+      <c r="H1018" s="27">
+        <v>5.60340451e6</v>
+      </c>
+      <c r="I1018" s="27">
+        <v>3.57995061e6</v>
+      </c>
+      <c r="J1018" s="28"/>
+    </row>
+    <row r="1019" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1019" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1019" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1019" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1019" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1019" s="26">
+        <v>202407</v>
+      </c>
+      <c r="G1019" s="27">
+        <v>6.67937e6</v>
+      </c>
+      <c r="H1019" s="27">
+        <v>4.08432173e6</v>
+      </c>
+      <c r="I1019" s="27">
+        <v>5.99399063e6</v>
+      </c>
+      <c r="J1019" s="28"/>
+    </row>
+    <row r="1020" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1020" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1020" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1020" s="24">
+        <v>4</v>
+      </c>
+      <c r="E1020" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1020" s="26">
+        <v>202408</v>
+      </c>
+      <c r="G1020" s="27">
+        <v>1.74849919e6</v>
+      </c>
+      <c r="H1020" s="27">
+        <v>1.81395114e6</v>
+      </c>
+      <c r="I1020" s="27">
+        <v>1.93454114e6</v>
+      </c>
+      <c r="J1020" s="28"/>
+    </row>
+    <row r="1021" s="1" customFormat="1" ht="19.1988" customHeight="1">
+      <c r="B1021" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C1021" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1021" s="24">
         <v>5</v>
       </c>
-      <c r="E1003" s="25" t="s">
+      <c r="E1021" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F1003" s="26">
+      <c r="F1021" s="26">
         <v>202401</v>
       </c>
-      <c r="G1003" s="27"/>
-      <c r="H1003" s="27"/>
-      <c r="I1003" s="27"/>
-      <c r="J1003" s="28">
+      <c r="G1021" s="27"/>
+      <c r="H1021" s="27"/>
+      <c r="I1021" s="27"/>
+      <c r="J1021" s="28">
         <v>16.533e6</v>
       </c>
     </row>
-    <row r="1004" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="B1004" s="11"/>
-      <c r="C1004" s="11"/>
-      <c r="D1004" s="11"/>
-      <c r="E1004" s="12" t="s">
+    <row r="1022" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B1022" s="11"/>
+      <c r="C1022" s="11"/>
+      <c r="D1022" s="11"/>
+      <c r="E1022" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1004" s="11"/>
-      <c r="G1004" s="13">
-        <v>171831.91739684e6</v>
-      </c>
-      <c r="H1004" s="13">
-        <v>156840.38849924e6</v>
-      </c>
-      <c r="I1004" s="13">
-        <v>152798.07165003e6</v>
-      </c>
-      <c r="J1004" s="14">
-        <v>48157.26348427e6</v>
-      </c>
-    </row>
-    <row r="1005" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="F1022" s="11"/>
+      <c r="G1022" s="13">
+        <v>172939.19123962e6</v>
+      </c>
+      <c r="H1022" s="13">
+        <v>158448.69721292e6</v>
+      </c>
+      <c r="I1022" s="13">
+        <v>155218.49723003e6</v>
+      </c>
+      <c r="J1022" s="14">
+        <v>48424.26112124e6</v>
+      </c>
+    </row>
+    <row r="1023" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -38613,7 +39277,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="7">
-        <v>23042.29442233e6</v>
+        <v>23036.47460098e6</v>
       </c>
       <c r="F3" s="7">
         <v>23036.39854323e6</v>
@@ -38653,13 +39317,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="7">
-        <v>11981.60985715e6</v>
+        <v>11952.64378719e6</v>
       </c>
       <c r="F5" s="7">
-        <v>11901.21873502e6</v>
+        <v>11903.58337055e6</v>
       </c>
       <c r="G5" s="7">
-        <v>11894.20882521e6</v>
+        <v>11896.95678461e6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -38673,13 +39337,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="7">
-        <v>3234.1396343e6</v>
+        <v>3232.93398222e6</v>
       </c>
       <c r="F6" s="7">
-        <v>2946.2366307e6</v>
+        <v>2973.26499224e6</v>
       </c>
       <c r="G6" s="7">
-        <v>2933.28067847e6</v>
+        <v>2966.07721021e6</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -38729,13 +39393,13 @@
         <v>27</v>
       </c>
       <c r="E9" s="14">
-        <v>39186.32702806e6</v>
+        <v>39150.33548467e6</v>
       </c>
       <c r="F9" s="14">
-        <v>38812.13702323e6</v>
+        <v>38841.5300203e6</v>
       </c>
       <c r="G9" s="14">
-        <v>38791.59337987e6</v>
+        <v>38827.13787101e6</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
